--- a/sampleData/sampleData.xlsx
+++ b/sampleData/sampleData.xlsx
@@ -54,13 +54,16 @@
     <t>Decorators</t>
   </si>
   <si>
+    <t>Plumbers</t>
+  </si>
+  <si>
     <t>Carpentary Ltd</t>
   </si>
   <si>
-    <t>Plumbers</t>
+    <t>Flooring</t>
   </si>
   <si>
-    <t>Flooring</t>
+    <t>Insulation</t>
   </si>
   <si>
     <t>Greg Contractors</t>
@@ -87,9 +90,6 @@
     <t>Tilers</t>
   </si>
   <si>
-    <t>Insulation</t>
-  </si>
-  <si>
     <t>ValtoDateTurnover</t>
   </si>
   <si>
@@ -105,7 +105,13 @@
     <t>MonthlyForecastTurnover</t>
   </si>
   <si>
+    <t>ConCompDate</t>
+  </si>
+  <si>
     <t>MonthlyForecastMargin</t>
+  </si>
+  <si>
+    <t>AdherenceTgtPct</t>
   </si>
   <si>
     <t>ValInQuarterTurnover</t>
@@ -120,19 +126,34 @@
     <t>ForecastForQuarterMargin</t>
   </si>
   <si>
-    <t>ConCompDate</t>
+    <t>EstCompDate</t>
   </si>
   <si>
-    <t>AdherenceTgtPct</t>
+    <t>WeeksCompleted</t>
+  </si>
+  <si>
+    <t>WeeksContracted</t>
   </si>
   <si>
     <t>AdherenceTarget</t>
   </si>
   <si>
+    <t>TimeCompleted</t>
+  </si>
+  <si>
     <t>AdherenceActual</t>
   </si>
   <si>
+    <t>TimeRemaining</t>
+  </si>
+  <si>
+    <t>ValueCompleted</t>
+  </si>
+  <si>
     <t>MonthlyCashFlowPredTgtPct</t>
+  </si>
+  <si>
+    <t>ValueRemaining</t>
   </si>
   <si>
     <t>QtrCashFlowPredTgtPct</t>
@@ -169,27 +190,6 @@
   </si>
   <si>
     <t>PctRecycledWasteAct</t>
-  </si>
-  <si>
-    <t>EstCompDate</t>
-  </si>
-  <si>
-    <t>WeeksCompleted</t>
-  </si>
-  <si>
-    <t>WeeksContracted</t>
-  </si>
-  <si>
-    <t>TimeCompleted</t>
-  </si>
-  <si>
-    <t>TimeRemaining</t>
-  </si>
-  <si>
-    <t>ValueCompleted</t>
-  </si>
-  <si>
-    <t>ValueRemaining</t>
   </si>
   <si>
     <t>WeekNum</t>
@@ -621,6 +621,15 @@
     <t>23.09.16</t>
   </si>
   <si>
+    <t>partSite</t>
+  </si>
+  <si>
+    <t>wholeSite</t>
+  </si>
+  <si>
+    <t>replacement</t>
+  </si>
+  <si>
     <t>clientChange</t>
   </si>
   <si>
@@ -631,15 +640,6 @@
   </si>
   <si>
     <t>damage</t>
-  </si>
-  <si>
-    <t>partSite</t>
-  </si>
-  <si>
-    <t>wholeSite</t>
-  </si>
-  <si>
-    <t>replacement</t>
   </si>
   <si>
     <t>Abdomen</t>
@@ -697,17 +697,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="d mmmm yyyy"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="[$-809]dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="[$-809]dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="171" formatCode="mmmyy"/>
     <numFmt numFmtId="172" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="173" formatCode="&quot;£&quot;#,##0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -798,6 +797,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -807,20 +809,20 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -837,18 +839,18 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="37" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -857,15 +859,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="171" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -878,10 +877,10 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="171" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="172" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="172" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
@@ -889,11 +888,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="173" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="173" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1058,7 +1057,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>42298.0</v>
       </c>
       <c r="C2" s="1">
@@ -1080,7 +1079,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>42669.0</v>
       </c>
       <c r="C4" s="1">
@@ -1117,124 +1116,124 @@
       <c r="B1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="27">
+      <c r="C1" s="26">
         <v>42095.0</v>
       </c>
-      <c r="D1" s="27">
+      <c r="D1" s="26">
         <v>42125.0</v>
       </c>
-      <c r="E1" s="27">
+      <c r="E1" s="26">
         <v>42156.0</v>
       </c>
-      <c r="F1" s="27">
+      <c r="F1" s="26">
         <v>42186.0</v>
       </c>
-      <c r="G1" s="27">
+      <c r="G1" s="26">
         <v>42217.0</v>
       </c>
-      <c r="H1" s="27">
+      <c r="H1" s="26">
         <v>42248.0</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1" s="26">
         <v>42278.0</v>
       </c>
-      <c r="J1" s="27">
+      <c r="J1" s="26">
         <v>42309.0</v>
       </c>
-      <c r="K1" s="27">
+      <c r="K1" s="26">
         <v>42339.0</v>
       </c>
-      <c r="L1" s="27">
+      <c r="L1" s="26">
         <v>42370.0</v>
       </c>
-      <c r="M1" s="27">
+      <c r="M1" s="26">
         <v>42401.0</v>
       </c>
-      <c r="N1" s="27">
+      <c r="N1" s="26">
         <v>42430.0</v>
       </c>
-      <c r="O1" s="27">
+      <c r="O1" s="26">
         <v>42461.0</v>
       </c>
-      <c r="P1" s="27">
+      <c r="P1" s="26">
         <v>42491.0</v>
       </c>
-      <c r="Q1" s="27">
+      <c r="Q1" s="26">
         <v>42522.0</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="26">
         <v>42552.0</v>
       </c>
-      <c r="S1" s="27">
+      <c r="S1" s="26">
         <v>42583.0</v>
       </c>
-      <c r="T1" s="27">
+      <c r="T1" s="26">
         <v>42614.0</v>
       </c>
-      <c r="U1" s="27">
+      <c r="U1" s="26">
         <v>42644.0</v>
       </c>
-      <c r="V1" s="27">
+      <c r="V1" s="26">
         <v>42675.0</v>
       </c>
-      <c r="W1" s="27">
+      <c r="W1" s="26">
         <v>42705.0</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="26">
         <v>42736.0</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="26">
         <v>42767.0</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="26">
         <v>42795.0</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="26">
         <v>42826.0</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="26">
         <v>42856.0</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="26">
         <v>42887.0</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="26">
         <v>42917.0</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="26">
         <v>42948.0</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="26">
         <v>42979.0</v>
       </c>
-      <c r="AG1" s="27">
+      <c r="AG1" s="26">
         <v>43009.0</v>
       </c>
-      <c r="AH1" s="27">
+      <c r="AH1" s="26">
         <v>43040.0</v>
       </c>
-      <c r="AI1" s="27">
+      <c r="AI1" s="26">
         <v>43070.0</v>
       </c>
-      <c r="AJ1" s="27">
+      <c r="AJ1" s="26">
         <v>43101.0</v>
       </c>
-      <c r="AK1" s="27">
+      <c r="AK1" s="26">
         <v>43132.0</v>
       </c>
-      <c r="AL1" s="27">
+      <c r="AL1" s="26">
         <v>43160.0</v>
       </c>
-      <c r="AM1" s="27">
+      <c r="AM1" s="26">
         <v>43191.0</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="26">
         <v>43221.0</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="26">
         <v>43252.0</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="26">
         <v>43282.0</v>
       </c>
     </row>
@@ -1245,124 +1244,124 @@
       <c r="B2" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="20">
         <v>250000.0</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="20">
         <v>546169.0</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="20">
         <v>1108788.0</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="20">
         <v>1820188.0</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="20">
         <v>2312774.0</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="20">
         <v>3403393.0</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="20">
         <v>3998893.0</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="20">
         <v>4505093.0</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="20">
         <v>5268993.0</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="20">
         <v>5859393.0</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="20">
         <v>6726193.0</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="20">
         <v>7919893.0</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="20">
         <v>8897593.0</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="20">
         <v>1.0237993E7</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="20">
         <v>1.1849252E7</v>
       </c>
-      <c r="R2" s="18">
+      <c r="R2" s="20">
         <v>1.3040793E7</v>
       </c>
-      <c r="S2" s="18">
+      <c r="S2" s="20">
         <v>1.3808993E7</v>
       </c>
-      <c r="T2" s="18">
+      <c r="T2" s="20">
         <v>1.4937236E7</v>
       </c>
-      <c r="U2" s="18">
+      <c r="U2" s="20">
         <v>1.6096693E7</v>
       </c>
-      <c r="V2" s="18">
+      <c r="V2" s="20">
         <v>1.7277193E7</v>
       </c>
-      <c r="W2" s="18">
+      <c r="W2" s="20">
         <v>1.8705893E7</v>
       </c>
-      <c r="X2" s="18">
+      <c r="X2" s="20">
         <v>1.9755693E7</v>
       </c>
-      <c r="Y2" s="18">
+      <c r="Y2" s="20">
         <v>2.1132793E7</v>
       </c>
-      <c r="Z2" s="18">
+      <c r="Z2" s="20">
         <v>2.2986993E7</v>
       </c>
-      <c r="AA2" s="18">
+      <c r="AA2" s="20">
         <v>2.4667693E7</v>
       </c>
-      <c r="AB2" s="18">
+      <c r="AB2" s="20">
         <v>2.6447493E7</v>
       </c>
-      <c r="AC2" s="18">
+      <c r="AC2" s="20">
         <v>2.8284093E7</v>
       </c>
-      <c r="AD2" s="18">
+      <c r="AD2" s="20">
         <v>2.9815893E7</v>
       </c>
-      <c r="AE2" s="18">
+      <c r="AE2" s="20">
         <v>3.1498393E7</v>
       </c>
-      <c r="AF2" s="18">
+      <c r="AF2" s="20">
         <v>3.3741893E7</v>
       </c>
-      <c r="AG2" s="18">
+      <c r="AG2" s="20">
         <v>3.5570093E7</v>
       </c>
-      <c r="AH2" s="18">
+      <c r="AH2" s="20">
         <v>3.7189093E7</v>
       </c>
-      <c r="AI2" s="18">
+      <c r="AI2" s="20">
         <v>3.8837093E7</v>
       </c>
-      <c r="AJ2" s="18">
+      <c r="AJ2" s="20">
         <v>4.0605093E7</v>
       </c>
-      <c r="AK2" s="18">
+      <c r="AK2" s="20">
         <v>4.2365093E7</v>
       </c>
-      <c r="AL2" s="18">
+      <c r="AL2" s="20">
         <v>4.4145093E7</v>
       </c>
-      <c r="AM2" s="18">
+      <c r="AM2" s="20">
         <v>4.5667093E7</v>
       </c>
-      <c r="AN2" s="18">
+      <c r="AN2" s="20">
         <v>4.7211093E7</v>
       </c>
-      <c r="AO2" s="18">
+      <c r="AO2" s="20">
         <v>4.8475093E7</v>
       </c>
-      <c r="AP2" s="18">
+      <c r="AP2" s="20">
         <v>4.9650393E7</v>
       </c>
     </row>
@@ -1373,124 +1372,124 @@
       <c r="B3" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="20">
         <v>205907.0</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="20">
         <v>502076.0</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="20">
         <v>1064695.0</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="20">
         <v>1776095.0</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="20">
         <v>2268681.0</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="20">
         <v>3359300.0</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="20">
         <v>3954800.0</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="20">
         <v>4461000.0</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="20">
         <v>5224900.0</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="20">
         <v>5815300.0</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="20">
         <v>6682100.0</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="20">
         <v>7875800.0</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="20">
         <v>1064695.0</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="20">
         <v>1.01939E7</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="20">
         <v>1.1805159E7</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="20">
         <v>1.29967E7</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="20">
         <v>1.37649E7</v>
       </c>
-      <c r="T3" s="18">
+      <c r="T3" s="20">
         <v>1.4893143E7</v>
       </c>
-      <c r="U3" s="18">
+      <c r="U3" s="20">
         <v>1.60526E7</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="20">
         <v>1.72331E7</v>
       </c>
-      <c r="W3" s="18">
+      <c r="W3" s="20">
         <v>1.86618E7</v>
       </c>
-      <c r="X3" s="18">
+      <c r="X3" s="20">
         <v>1.97116E7</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="Y3" s="20">
         <v>2.10887E7</v>
       </c>
-      <c r="Z3" s="18">
+      <c r="Z3" s="20">
         <v>2.29429E7</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AA3" s="20">
         <v>2.46236E7</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AB3" s="20">
         <v>2.64034E7</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AC3" s="20">
         <v>2.824E7</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="20">
         <v>2.97718E7</v>
       </c>
-      <c r="AE3" s="18">
+      <c r="AE3" s="20">
         <v>3.14543E7</v>
       </c>
-      <c r="AF3" s="18">
+      <c r="AF3" s="20">
         <v>3.36978E7</v>
       </c>
-      <c r="AG3" s="18">
+      <c r="AG3" s="20">
         <v>3.5526E7</v>
       </c>
-      <c r="AH3" s="18">
+      <c r="AH3" s="20">
         <v>3.7145E7</v>
       </c>
-      <c r="AI3" s="18">
+      <c r="AI3" s="20">
         <v>3.8793E7</v>
       </c>
-      <c r="AJ3" s="18">
+      <c r="AJ3" s="20">
         <v>4.0561E7</v>
       </c>
-      <c r="AK3" s="18">
+      <c r="AK3" s="20">
         <v>4.2321E7</v>
       </c>
-      <c r="AL3" s="18">
+      <c r="AL3" s="20">
         <v>4.4101E7</v>
       </c>
-      <c r="AM3" s="18">
+      <c r="AM3" s="20">
         <v>4.5623E7</v>
       </c>
-      <c r="AN3" s="18">
+      <c r="AN3" s="20">
         <v>4.7167E7</v>
       </c>
-      <c r="AO3" s="18">
+      <c r="AO3" s="20">
         <v>4.8431E7</v>
       </c>
-      <c r="AP3" s="18">
+      <c r="AP3" s="20">
         <v>4.96063E7</v>
       </c>
     </row>
@@ -1501,124 +1500,124 @@
       <c r="B4" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="20">
         <v>250000.0</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="20">
         <v>546169.0</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="20">
         <v>1108788.0</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="20">
         <v>1820188.0</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="20">
         <v>2312774.0</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="20">
         <v>3406393.0</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="20">
         <v>3998893.0</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="20">
         <v>4505093.0</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="20">
         <v>5268993.0</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="20">
         <v>5730993.0</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="20">
         <v>6522993.0</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="20">
         <v>7531993.0</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="20">
         <v>8702993.0</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="20">
         <v>9922993.0</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="20">
         <v>1.1181993E7</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="20">
         <v>1.2777993E7</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="20">
         <v>1.4197993E7</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="20">
         <v>1.5697993E7</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="20">
         <v>1.7197993E7</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="20">
         <v>1.8797993E7</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="20">
         <v>2.0397993E7</v>
       </c>
-      <c r="X4" s="18">
+      <c r="X4" s="20">
         <v>2.1997993E7</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="Y4" s="20">
         <v>2.3577993E7</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="Z4" s="20">
         <v>2.5077993E7</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AA4" s="20">
         <v>2.6577993E7</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AB4" s="20">
         <v>2.8077993E7</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AC4" s="20">
         <v>2.9577993E7</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="20">
         <v>3.1077993E7</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AE4" s="20">
         <v>3.2577993E7</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AF4" s="20">
         <v>2.4077993E7</v>
       </c>
-      <c r="AG4" s="18">
+      <c r="AG4" s="20">
         <v>3.5577993E7</v>
       </c>
-      <c r="AH4" s="18">
+      <c r="AH4" s="20">
         <v>3.7077993E7</v>
       </c>
-      <c r="AI4" s="18">
+      <c r="AI4" s="20">
         <v>3.8877993E7</v>
       </c>
-      <c r="AJ4" s="18">
+      <c r="AJ4" s="20">
         <v>4.0677993E7</v>
       </c>
-      <c r="AK4" s="18">
+      <c r="AK4" s="20">
         <v>4.2577993E7</v>
       </c>
-      <c r="AL4" s="18">
+      <c r="AL4" s="20">
         <v>4.4477993E7</v>
       </c>
-      <c r="AM4" s="18">
+      <c r="AM4" s="20">
         <v>4.6377993E7</v>
       </c>
-      <c r="AN4" s="18">
+      <c r="AN4" s="20">
         <v>4.7877993E7</v>
       </c>
-      <c r="AO4" s="18">
+      <c r="AO4" s="20">
         <v>4.9332993E7</v>
       </c>
-      <c r="AP4" s="18">
+      <c r="AP4" s="20">
         <v>5.0663793E7</v>
       </c>
     </row>
@@ -1629,94 +1628,94 @@
       <c r="B5" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="20">
         <v>138033.0</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="20">
         <v>704480.0</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="20">
         <v>978019.0</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="20">
         <v>1458612.0</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="20">
         <v>2104857.0</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="20">
         <v>3157088.0</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="20">
         <v>3726973.0</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="20">
         <v>4206654.0</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="20">
         <v>4923587.0</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="20">
         <v>5422481.0</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="20">
         <v>6189444.0</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="20">
         <v>7248410.0</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="20">
         <v>8069382.0</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="20">
         <v>9298003.0</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="20">
         <v>1.0128089E7</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="20">
         <v>1.1205745E7</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="20">
         <v>1.1886726E7</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="20">
         <v>1.2512369E7</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="20">
         <v>1.3172305E7</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="20">
         <v>1.4072386E7</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="20">
         <v>1.5327595E7</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="20">
         <v>1.6172154E7</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Y5" s="20">
         <v>1.7398155E7</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="Z5" s="20">
         <v>1.9032628E7</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AA5" s="20">
         <v>2.0764084E7</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AB5" s="20">
         <v>2.265068E7</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AC5" s="20">
         <v>2.4547357E7</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="20">
         <v>2.6023506E7</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AE5" s="20">
         <v>2.7023631E7</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AF5" s="20">
         <v>2.9980247E7</v>
       </c>
       <c r="AG5" s="43"/>
@@ -2754,55 +2753,55 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3918,19 +3917,19 @@
       <c r="B2" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="20">
         <v>1052880.0</v>
       </c>
-      <c r="D2" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="D2" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="20">
         <v>-8000.0</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="20">
         <v>187000.0</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -3941,19 +3940,19 @@
       <c r="B3" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="20">
         <v>60010.0</v>
       </c>
-      <c r="D3" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="18">
+      <c r="D3" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -3964,19 +3963,19 @@
       <c r="B4" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="20">
         <v>800000.0</v>
       </c>
-      <c r="D4" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="D4" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="20">
         <v>473285.0</v>
       </c>
     </row>
@@ -3987,19 +3986,19 @@
       <c r="B5" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="20">
         <v>1.0098927E7</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="20">
         <v>222572.0</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="20">
         <v>-12813.0</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="20">
         <v>86699.0</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="20">
         <v>124128.0</v>
       </c>
     </row>
@@ -4010,19 +4009,19 @@
       <c r="B6" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="20">
         <v>356067.0</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="20">
         <v>10028.0</v>
       </c>
-      <c r="E6" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="18">
+      <c r="E6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="20">
         <v>10015.0</v>
       </c>
     </row>
@@ -4033,19 +4032,19 @@
       <c r="B7" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="18">
+      <c r="C7" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4056,19 +4055,19 @@
       <c r="B8" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="20">
         <v>1337500.0</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="20">
         <v>1000.0</v>
       </c>
-      <c r="E8" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="18">
+      <c r="E8" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="20">
         <v>54750.0</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="20">
         <v>1500.0</v>
       </c>
     </row>
@@ -4079,19 +4078,19 @@
       <c r="B9" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="20">
         <v>702696.0</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="20">
         <v>41244.0</v>
       </c>
-      <c r="E9" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="18">
+      <c r="E9" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4102,19 +4101,19 @@
       <c r="B10" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="20">
         <v>119501.0</v>
       </c>
-      <c r="D10" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="18">
+      <c r="D10" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4125,19 +4124,19 @@
       <c r="B11" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="20">
         <v>62172.0</v>
       </c>
-      <c r="D11" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="D11" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4148,19 +4147,19 @@
       <c r="B12" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="20">
         <v>903414.0</v>
       </c>
-      <c r="D12" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="D12" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4171,19 +4170,19 @@
       <c r="B13" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="20">
         <v>75000.0</v>
       </c>
-      <c r="D13" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="D13" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4194,19 +4193,19 @@
       <c r="B14" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="20">
         <v>926636.0</v>
       </c>
-      <c r="D14" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="18">
+      <c r="D14" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="20">
         <v>14000.0</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="20">
         <v>17500.0</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="20">
         <v>69381.0</v>
       </c>
     </row>
@@ -4217,19 +4216,19 @@
       <c r="B15" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="20">
         <v>294476.0</v>
       </c>
-      <c r="D15" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="18">
+      <c r="D15" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="20">
         <v>11200.0</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="20">
         <v>36834.0</v>
       </c>
     </row>
@@ -4240,19 +4239,19 @@
       <c r="B16" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="20">
         <v>557868.0</v>
       </c>
-      <c r="D16" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="20">
         <v>10200.0</v>
       </c>
-      <c r="F16" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="F16" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="20">
         <v>3600.0</v>
       </c>
     </row>
@@ -4263,19 +4262,19 @@
       <c r="B17" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="20">
         <v>4770000.0</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="20">
         <v>51000.0</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="20">
         <v>6000.0</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="20">
         <v>2500.0</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="20">
         <v>66790.0</v>
       </c>
     </row>
@@ -4286,19 +4285,19 @@
       <c r="B18" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="20">
         <v>2159536.0</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="20">
         <v>19654.0</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="20">
         <v>23000.0</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="20">
         <v>750.0</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="20">
         <v>134534.0</v>
       </c>
     </row>
@@ -4309,19 +4308,19 @@
       <c r="B19" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="20">
         <v>27893.0</v>
       </c>
-      <c r="D19" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="18">
+      <c r="D19" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4332,19 +4331,19 @@
       <c r="B20" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="20">
         <v>72970.0</v>
       </c>
-      <c r="D20" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="D20" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4355,19 +4354,19 @@
       <c r="B21" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="20">
         <v>560395.0</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="20">
         <v>11500.0</v>
       </c>
-      <c r="E21" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F21" s="18">
+      <c r="E21" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="20">
         <v>2400.0</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="20">
         <v>12500.0</v>
       </c>
     </row>
@@ -4378,19 +4377,19 @@
       <c r="B22" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="20">
         <v>89185.0</v>
       </c>
-      <c r="D22" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G22" s="18">
+      <c r="D22" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4401,19 +4400,19 @@
       <c r="B23" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="20">
         <v>2964209.0</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="20">
         <v>31250.0</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="20">
         <v>25000.0</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="20">
         <v>10500.0</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="20">
         <v>44000.0</v>
       </c>
     </row>
@@ -4424,19 +4423,19 @@
       <c r="B24" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="20">
         <v>438170.0</v>
       </c>
-      <c r="D24" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E24" s="18">
+      <c r="D24" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="20">
         <v>15750.0</v>
       </c>
-      <c r="F24" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G24" s="18">
+      <c r="F24" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4447,19 +4446,19 @@
       <c r="B25" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="20">
         <v>728220.0</v>
       </c>
-      <c r="D25" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="D25" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4470,19 +4469,19 @@
       <c r="B26" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="20">
         <v>167639.0</v>
       </c>
-      <c r="D26" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F26" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G26" s="18">
+      <c r="D26" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4493,19 +4492,19 @@
       <c r="B27" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="20">
         <v>10548.0</v>
       </c>
-      <c r="D27" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F27" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G27" s="18">
+      <c r="D27" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4516,19 +4515,19 @@
       <c r="B28" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="20">
         <v>5641.0</v>
       </c>
-      <c r="D28" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E28" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F28" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G28" s="18">
+      <c r="D28" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4539,19 +4538,19 @@
       <c r="B29" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="20">
         <v>28788.0</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="20">
         <v>4458.0</v>
       </c>
-      <c r="E29" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F29" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G29" s="18">
+      <c r="E29" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4562,19 +4561,19 @@
       <c r="B30" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="20">
         <v>396113.0</v>
       </c>
-      <c r="D30" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E30" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G30" s="18">
+      <c r="D30" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4585,19 +4584,19 @@
       <c r="B31" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="20">
         <v>33000.0</v>
       </c>
-      <c r="D31" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E31" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F31" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G31" s="18">
+      <c r="D31" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4608,19 +4607,19 @@
       <c r="B32" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E32" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F32" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G32" s="18">
+      <c r="C32" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G32" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4631,19 +4630,19 @@
       <c r="B33" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E33" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F33" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G33" s="18">
+      <c r="C33" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G33" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4654,19 +4653,19 @@
       <c r="B34" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="20">
         <v>769666.0</v>
       </c>
-      <c r="D34" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E34" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F34" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G34" s="18">
+      <c r="D34" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G34" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4677,19 +4676,19 @@
       <c r="B35" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="20">
         <v>56554.0</v>
       </c>
-      <c r="D35" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E35" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F35" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G35" s="18">
+      <c r="D35" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G35" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4700,19 +4699,19 @@
       <c r="B36" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="20">
         <v>8586.0</v>
       </c>
-      <c r="D36" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E36" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F36" s="18">
+      <c r="D36" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F36" s="20">
         <v>-1300.0</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4723,19 +4722,19 @@
       <c r="B37" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="20">
         <v>1566566.0</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="20">
         <v>19300.0</v>
       </c>
-      <c r="E37" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F37" s="18">
+      <c r="E37" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F37" s="20">
         <v>23400.0</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="20">
         <v>2500.0</v>
       </c>
     </row>
@@ -4746,19 +4745,19 @@
       <c r="B38" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="20">
         <v>45000.0</v>
       </c>
-      <c r="D38" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E38" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F38" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G38" s="18">
+      <c r="D38" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F38" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G38" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4769,19 +4768,19 @@
       <c r="B39" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="20">
         <v>71160.0</v>
       </c>
-      <c r="D39" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E39" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F39" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G39" s="18">
+      <c r="D39" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E39" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F39" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G39" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4792,19 +4791,19 @@
       <c r="B40" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="20">
         <v>26000.0</v>
       </c>
-      <c r="D40" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E40" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F40" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G40" s="18">
+      <c r="D40" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F40" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G40" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4815,19 +4814,19 @@
       <c r="B41" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="20">
         <v>33000.0</v>
       </c>
-      <c r="D41" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E41" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F41" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G41" s="18">
+      <c r="D41" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F41" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G41" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4838,19 +4837,19 @@
       <c r="B42" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="20">
         <v>59500.0</v>
       </c>
-      <c r="D42" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E42" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F42" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G42" s="18">
+      <c r="D42" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E42" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F42" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G42" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4861,19 +4860,19 @@
       <c r="B43" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="20">
         <v>53361.0</v>
       </c>
-      <c r="D43" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E43" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F43" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G43" s="18">
+      <c r="D43" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E43" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F43" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G43" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4884,19 +4883,19 @@
       <c r="B44" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="20">
         <v>382953.0</v>
       </c>
-      <c r="D44" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E44" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F44" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G44" s="18">
+      <c r="D44" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E44" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F44" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G44" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4907,19 +4906,19 @@
       <c r="B45" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="20">
         <v>27240.0</v>
       </c>
-      <c r="D45" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E45" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F45" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G45" s="18">
+      <c r="D45" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E45" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F45" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G45" s="20">
         <v>30000.0</v>
       </c>
     </row>
@@ -4930,19 +4929,19 @@
       <c r="B46" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="20">
         <v>19260.0</v>
       </c>
-      <c r="D46" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E46" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F46" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G46" s="18">
+      <c r="D46" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E46" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F46" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G46" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4953,19 +4952,19 @@
       <c r="B47" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="20">
         <v>334240.0</v>
       </c>
-      <c r="D47" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E47" s="18">
+      <c r="D47" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E47" s="20">
         <v>-81794.0</v>
       </c>
-      <c r="F47" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G47" s="18">
+      <c r="F47" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G47" s="20">
         <v>68598.0</v>
       </c>
     </row>
@@ -4976,19 +4975,19 @@
       <c r="B48" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="20">
         <v>32400.0</v>
       </c>
-      <c r="D48" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E48" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F48" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G48" s="18">
+      <c r="D48" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E48" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F48" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G48" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -4999,19 +4998,19 @@
       <c r="B49" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D49" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E49" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F49" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G49" s="18">
+      <c r="C49" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D49" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E49" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F49" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G49" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -5022,19 +5021,19 @@
       <c r="B50" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="20">
         <v>137238.0</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="20">
         <v>3000.0</v>
       </c>
-      <c r="E50" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F50" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G50" s="18">
+      <c r="E50" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F50" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G50" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -5045,19 +5044,19 @@
       <c r="B51" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="20">
         <v>395000.0</v>
       </c>
-      <c r="D51" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E51" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F51" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G51" s="18">
+      <c r="D51" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E51" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F51" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G51" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -6040,157 +6039,157 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27">
+      <c r="B1" s="26">
         <v>41275.0</v>
       </c>
-      <c r="C1" s="27">
+      <c r="C1" s="26">
         <v>41306.0</v>
       </c>
-      <c r="D1" s="27">
+      <c r="D1" s="26">
         <v>41334.0</v>
       </c>
-      <c r="E1" s="27">
+      <c r="E1" s="26">
         <v>41365.0</v>
       </c>
-      <c r="F1" s="27">
+      <c r="F1" s="26">
         <v>41395.0</v>
       </c>
-      <c r="G1" s="27">
+      <c r="G1" s="26">
         <v>41426.0</v>
       </c>
-      <c r="H1" s="27">
+      <c r="H1" s="26">
         <v>41456.0</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1" s="26">
         <v>41487.0</v>
       </c>
-      <c r="J1" s="27">
+      <c r="J1" s="26">
         <v>41518.0</v>
       </c>
-      <c r="K1" s="27">
+      <c r="K1" s="26">
         <v>41548.0</v>
       </c>
-      <c r="L1" s="27">
+      <c r="L1" s="26">
         <v>41579.0</v>
       </c>
-      <c r="M1" s="27">
+      <c r="M1" s="26">
         <v>41609.0</v>
       </c>
-      <c r="N1" s="27">
+      <c r="N1" s="26">
         <v>41640.0</v>
       </c>
-      <c r="O1" s="27">
+      <c r="O1" s="26">
         <v>41671.0</v>
       </c>
-      <c r="P1" s="27">
+      <c r="P1" s="26">
         <v>41699.0</v>
       </c>
-      <c r="Q1" s="27">
+      <c r="Q1" s="26">
         <v>41730.0</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="26">
         <v>41760.0</v>
       </c>
-      <c r="S1" s="27">
+      <c r="S1" s="26">
         <v>41791.0</v>
       </c>
-      <c r="T1" s="27">
+      <c r="T1" s="26">
         <v>41821.0</v>
       </c>
-      <c r="U1" s="27">
+      <c r="U1" s="26">
         <v>41852.0</v>
       </c>
-      <c r="V1" s="27">
+      <c r="V1" s="26">
         <v>41883.0</v>
       </c>
-      <c r="W1" s="27">
+      <c r="W1" s="26">
         <v>41913.0</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="26">
         <v>41944.0</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="26">
         <v>41974.0</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="26">
         <v>42005.0</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="26">
         <v>42036.0</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="26">
         <v>42064.0</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="26">
         <v>42095.0</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="26">
         <v>42125.0</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="26">
         <v>42156.0</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="26">
         <v>42186.0</v>
       </c>
-      <c r="AG1" s="27">
+      <c r="AG1" s="26">
         <v>42217.0</v>
       </c>
-      <c r="AH1" s="27">
+      <c r="AH1" s="26">
         <v>42248.0</v>
       </c>
-      <c r="AI1" s="27">
+      <c r="AI1" s="26">
         <v>42278.0</v>
       </c>
-      <c r="AJ1" s="27">
+      <c r="AJ1" s="26">
         <v>42309.0</v>
       </c>
-      <c r="AK1" s="27">
+      <c r="AK1" s="26">
         <v>42339.0</v>
       </c>
-      <c r="AL1" s="27">
+      <c r="AL1" s="26">
         <v>42370.0</v>
       </c>
-      <c r="AM1" s="27">
+      <c r="AM1" s="26">
         <v>42401.0</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="26">
         <v>42430.0</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="26">
         <v>42461.0</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="26">
         <v>42491.0</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="26">
         <v>42522.0</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="26">
         <v>42552.0</v>
       </c>
-      <c r="AS1" s="27">
+      <c r="AS1" s="26">
         <v>42583.0</v>
       </c>
-      <c r="AT1" s="27">
+      <c r="AT1" s="26">
         <v>42614.0</v>
       </c>
-      <c r="AU1" s="27">
+      <c r="AU1" s="26">
         <v>42644.0</v>
       </c>
-      <c r="AV1" s="27">
+      <c r="AV1" s="26">
         <v>42675.0</v>
       </c>
-      <c r="AW1" s="27">
+      <c r="AW1" s="26">
         <v>42705.0</v>
       </c>
-      <c r="AX1" s="27">
+      <c r="AX1" s="26">
         <v>42736.0</v>
       </c>
-      <c r="AY1" s="27">
+      <c r="AY1" s="26">
         <v>42767.0</v>
       </c>
-      <c r="AZ1" s="27">
+      <c r="AZ1" s="26">
         <v>42795.0</v>
       </c>
     </row>
@@ -6198,157 +6197,157 @@
       <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="K2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="L2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="M2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="N2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="O2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="X2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="Y2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="Z2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AA2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AB2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AC2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AD2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AE2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AF2" s="14">
+      <c r="B2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="O2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="X2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AA2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AB2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AD2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AE2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AF2" s="15">
         <v>42.0</v>
       </c>
-      <c r="AG2" s="14">
+      <c r="AG2" s="15">
         <v>49.0</v>
       </c>
-      <c r="AH2" s="14">
+      <c r="AH2" s="15">
         <v>42.0</v>
       </c>
-      <c r="AI2" s="14">
+      <c r="AI2" s="15">
         <v>43.0</v>
       </c>
-      <c r="AJ2" s="14">
+      <c r="AJ2" s="15">
         <v>42.0</v>
       </c>
-      <c r="AK2" s="14">
+      <c r="AK2" s="15">
         <v>37.0</v>
       </c>
-      <c r="AL2" s="14">
+      <c r="AL2" s="15">
         <v>44.0</v>
       </c>
-      <c r="AM2" s="14">
+      <c r="AM2" s="15">
         <v>33.0</v>
       </c>
-      <c r="AN2" s="14">
+      <c r="AN2" s="15">
         <v>41.0</v>
       </c>
-      <c r="AO2" s="14">
+      <c r="AO2" s="15">
         <v>43.0</v>
       </c>
-      <c r="AP2" s="14">
+      <c r="AP2" s="15">
         <v>43.0</v>
       </c>
-      <c r="AQ2" s="14">
+      <c r="AQ2" s="15">
         <v>43.0</v>
       </c>
-      <c r="AR2" s="14">
+      <c r="AR2" s="15">
         <v>45.0</v>
       </c>
-      <c r="AS2" s="14">
+      <c r="AS2" s="15">
         <v>39.0</v>
       </c>
-      <c r="AT2" s="14">
+      <c r="AT2" s="15">
         <v>40.0</v>
       </c>
-      <c r="AU2" s="14">
+      <c r="AU2" s="15">
         <v>42.0</v>
       </c>
-      <c r="AV2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AW2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AX2" s="14">
+      <c r="AV2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AW2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AX2" s="15">
         <v>72.0</v>
       </c>
-      <c r="AY2" s="14">
+      <c r="AY2" s="15">
         <v>66.0</v>
       </c>
-      <c r="AZ2" s="14">
+      <c r="AZ2" s="15">
         <v>66.0</v>
       </c>
     </row>
@@ -6356,157 +6355,157 @@
       <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="K3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="L3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="M3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="N3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="X3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="Y3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="Z3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AA3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AB3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AC3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AD3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AE3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AF3" s="14">
+      <c r="B3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="O3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="X3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AD3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AE3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AF3" s="15">
         <v>88.0</v>
       </c>
-      <c r="AG3" s="14">
+      <c r="AG3" s="15">
         <v>82.0</v>
       </c>
-      <c r="AH3" s="14">
+      <c r="AH3" s="15">
         <v>88.0</v>
       </c>
-      <c r="AI3" s="14">
+      <c r="AI3" s="15">
         <v>90.0</v>
       </c>
-      <c r="AJ3" s="14">
+      <c r="AJ3" s="15">
         <v>86.0</v>
       </c>
-      <c r="AK3" s="14">
+      <c r="AK3" s="15">
         <v>77.0</v>
       </c>
-      <c r="AL3" s="14">
+      <c r="AL3" s="15">
         <v>91.0</v>
       </c>
-      <c r="AM3" s="14">
+      <c r="AM3" s="15">
         <v>69.0</v>
       </c>
-      <c r="AN3" s="14">
+      <c r="AN3" s="15">
         <v>85.0</v>
       </c>
-      <c r="AO3" s="14">
+      <c r="AO3" s="15">
         <v>90.0</v>
       </c>
-      <c r="AP3" s="14">
+      <c r="AP3" s="15">
         <v>89.0</v>
       </c>
-      <c r="AQ3" s="14">
+      <c r="AQ3" s="15">
         <v>90.0</v>
       </c>
-      <c r="AR3" s="14">
+      <c r="AR3" s="15">
         <v>93.0</v>
       </c>
-      <c r="AS3" s="14">
+      <c r="AS3" s="15">
         <v>82.0</v>
       </c>
-      <c r="AT3" s="14">
+      <c r="AT3" s="15">
         <v>83.0</v>
       </c>
-      <c r="AU3" s="14">
+      <c r="AU3" s="15">
         <v>88.0</v>
       </c>
-      <c r="AV3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AW3" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AX3" s="14">
+      <c r="AV3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AW3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AX3" s="15">
         <v>94.0</v>
       </c>
-      <c r="AY3" s="14">
+      <c r="AY3" s="15">
         <v>92.0</v>
       </c>
-      <c r="AZ3" s="14">
+      <c r="AZ3" s="15">
         <v>92.0</v>
       </c>
     </row>
@@ -7590,7 +7589,7 @@
         <v>161</v>
       </c>
       <c r="O1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P1" t="s">
         <v>162</v>
@@ -7599,7 +7598,7 @@
         <v>163</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S1" t="s">
         <v>164</v>
@@ -9960,13 +9959,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -11009,16 +11008,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -13198,13 +13197,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -13224,7 +13223,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>4.0</v>
@@ -13257,7 +13256,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>4.0</v>
@@ -13268,7 +13267,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>1.0</v>
@@ -13279,7 +13278,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>5.0</v>
@@ -13290,7 +13289,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>3.0</v>
@@ -13301,7 +13300,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>3.0</v>
@@ -13312,7 +13311,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>6.0</v>
@@ -13323,7 +13322,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>2.0</v>
@@ -13334,7 +13333,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>4.0</v>
@@ -13345,117 +13344,117 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16">
-      <c r="B16" s="7"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17">
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18">
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19">
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20">
-      <c r="B20" s="7"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21">
-      <c r="B21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22">
-      <c r="B22" s="7"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23">
-      <c r="B23" s="7"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24">
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25">
       <c r="B25" s="9"/>
     </row>
     <row r="26">
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27">
-      <c r="B27" s="7"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28">
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29">
-      <c r="B29" s="7"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30">
-      <c r="B30" s="7"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31">
-      <c r="B31" s="7"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32">
-      <c r="B32" s="7"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33">
-      <c r="B33" s="7"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34">
-      <c r="B34" s="7"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35">
-      <c r="B35" s="7"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36">
-      <c r="B36" s="7"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37">
-      <c r="B37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38">
-      <c r="B38" s="7"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39">
-      <c r="B39" s="7"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40">
-      <c r="B40" s="7"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41">
-      <c r="B41" s="7"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42">
-      <c r="B42" s="7"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="43">
-      <c r="B43" s="7"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44">
-      <c r="B44" s="7"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45">
-      <c r="B45" s="7"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46">
-      <c r="B46" s="7"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47">
-      <c r="B47" s="7"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48">
-      <c r="B48" s="7"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49">
-      <c r="B49" s="7"/>
+      <c r="B49" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -13479,13 +13478,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -13505,7 +13504,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>2.0</v>
@@ -13527,144 +13526,144 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="8"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7">
-      <c r="B7" s="8"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8">
-      <c r="B8" s="8"/>
-      <c r="G8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9">
-      <c r="B9" s="8"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10">
-      <c r="B10" s="8"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11">
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
     </row>
     <row r="12">
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13">
-      <c r="B13" s="8"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14">
-      <c r="B14" s="7"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15">
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16">
-      <c r="B16" s="7"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17">
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18">
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19">
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20">
-      <c r="B20" s="7"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21">
-      <c r="B21" s="7"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22">
-      <c r="B22" s="7"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23">
-      <c r="B23" s="7"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24">
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25">
       <c r="B25" s="9"/>
     </row>
     <row r="26">
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27">
-      <c r="B27" s="7"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28">
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29">
-      <c r="B29" s="7"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30">
-      <c r="B30" s="7"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31">
-      <c r="B31" s="7"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32">
-      <c r="B32" s="7"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33">
-      <c r="B33" s="7"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34">
-      <c r="B34" s="7"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35">
-      <c r="B35" s="7"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36">
-      <c r="B36" s="7"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37">
-      <c r="B37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38">
-      <c r="B38" s="7"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39">
-      <c r="B39" s="7"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40">
-      <c r="B40" s="7"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41">
-      <c r="B41" s="7"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42">
-      <c r="B42" s="7"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="43">
-      <c r="B43" s="7"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44">
-      <c r="B44" s="7"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45">
-      <c r="B45" s="7"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46">
-      <c r="B46" s="7"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47">
-      <c r="B47" s="7"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48">
-      <c r="B48" s="7"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49">
-      <c r="B49" s="7"/>
+      <c r="B49" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -13697,90 +13696,90 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="14">
         <v>3.36978E7</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>983999.0</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="15">
         <v>2243500.0</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="15">
         <v>25000.0</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="15">
         <v>1758000.0</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="15">
         <v>70000.0</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="15">
         <v>5457800.0</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="15">
         <v>-783213.0</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="15">
         <v>5118840.0</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="15">
         <v>210000.0</v>
       </c>
       <c r="AE2" s="16"/>
@@ -14812,93 +14811,93 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="D1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="15" t="s">
+      <c r="E1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="G1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="H1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="I1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="J1" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="K1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="20">
         <v>100.0</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>5700432.0</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="15">
         <v>6877922.0</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="15">
         <v>105.0</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="15">
         <v>105.0</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="15">
         <v>1.0</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="22">
         <v>0.031</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="20">
         <v>1049838.0</v>
       </c>
-      <c r="J2" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="K2" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="L2" s="18">
+      <c r="J2" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="20">
         <v>80.0</v>
       </c>
       <c r="M2" s="24">
@@ -14910,10 +14909,10 @@
       <c r="O2" s="24">
         <v>0.67</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="20">
         <v>90.0</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="20">
         <v>98.0</v>
       </c>
     </row>
@@ -15946,66 +15945,66 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>43229.0</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="19">
         <v>43403.0</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="20">
         <v>130.0</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="20">
         <v>163.0</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="15">
         <v>80.0</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="15">
         <v>20.0</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="15">
         <v>61.0</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="15">
         <v>39.0</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="14.25" customHeight="1"/>
@@ -21203,7 +21202,7 @@
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="28" t="s">
@@ -21248,13 +21247,13 @@
       <c r="B2" s="31">
         <v>42095.0</v>
       </c>
-      <c r="C2" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="33">
+      <c r="C2" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="32">
         <v>0.0</v>
       </c>
       <c r="F2" s="34">
@@ -21270,7 +21269,7 @@
         <f t="shared" ref="I2:I26" si="1">SUM(G2:H2)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="32">
         <v>0.0</v>
       </c>
       <c r="K2" s="34">
@@ -21293,13 +21292,13 @@
       <c r="B3" s="31">
         <v>42125.0</v>
       </c>
-      <c r="C3" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="33">
+      <c r="C3" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="32">
         <v>0.0</v>
       </c>
       <c r="F3" s="34">
@@ -21315,7 +21314,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="32">
         <v>0.0</v>
       </c>
       <c r="K3" s="34">
@@ -21338,13 +21337,13 @@
       <c r="B4" s="31">
         <v>42156.0</v>
       </c>
-      <c r="C4" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="33">
+      <c r="C4" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="32">
         <v>0.0</v>
       </c>
       <c r="F4" s="34">
@@ -21360,7 +21359,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <v>0.0</v>
       </c>
       <c r="K4" s="34">
@@ -21383,13 +21382,13 @@
       <c r="B5" s="31">
         <v>42186.0</v>
       </c>
-      <c r="C5" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="33">
+      <c r="C5" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="32">
         <v>0.0</v>
       </c>
       <c r="F5" s="34">
@@ -21405,7 +21404,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="32">
         <v>0.0</v>
       </c>
       <c r="K5" s="34">
@@ -22322,2926 +22321,2926 @@
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="27"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="27"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="B29" s="27"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="B30" s="27"/>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="B31" s="27"/>
+      <c r="B31" s="26"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="B32" s="27"/>
+      <c r="B32" s="26"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="B33" s="27"/>
+      <c r="B33" s="26"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="B35" s="27"/>
+      <c r="B35" s="26"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="B36" s="27"/>
+      <c r="B36" s="26"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="B37" s="27"/>
+      <c r="B37" s="26"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="B38" s="27"/>
+      <c r="B38" s="26"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="B39" s="27"/>
+      <c r="B39" s="26"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="B40" s="27"/>
+      <c r="B40" s="26"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="B41" s="27"/>
+      <c r="B41" s="26"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="B42" s="27"/>
+      <c r="B42" s="26"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="B43" s="27"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="B44" s="27"/>
+      <c r="B44" s="26"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="B45" s="27"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="B46" s="27"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="B47" s="27"/>
+      <c r="B47" s="26"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="B48" s="27"/>
+      <c r="B48" s="26"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="B49" s="27"/>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="B50" s="27"/>
+      <c r="B50" s="26"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="B51" s="27"/>
+      <c r="B51" s="26"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="B52" s="27"/>
+      <c r="B52" s="26"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="B53" s="27"/>
+      <c r="B53" s="26"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="B54" s="27"/>
+      <c r="B54" s="26"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="B55" s="27"/>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="B56" s="27"/>
+      <c r="B56" s="26"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="B57" s="27"/>
+      <c r="B57" s="26"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="B58" s="27"/>
+      <c r="B58" s="26"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="B59" s="27"/>
+      <c r="B59" s="26"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="B60" s="27"/>
+      <c r="B60" s="26"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="B61" s="27"/>
+      <c r="B61" s="26"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="B62" s="27"/>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="B63" s="27"/>
+      <c r="B63" s="26"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="B64" s="27"/>
+      <c r="B64" s="26"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="B65" s="27"/>
+      <c r="B65" s="26"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="B66" s="27"/>
+      <c r="B66" s="26"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="B67" s="27"/>
+      <c r="B67" s="26"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="B68" s="27"/>
+      <c r="B68" s="26"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="B69" s="27"/>
+      <c r="B69" s="26"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="B70" s="27"/>
+      <c r="B70" s="26"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="B71" s="27"/>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="B72" s="27"/>
+      <c r="B72" s="26"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="B73" s="27"/>
+      <c r="B73" s="26"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="B74" s="27"/>
+      <c r="B74" s="26"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="B75" s="27"/>
+      <c r="B75" s="26"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="B76" s="27"/>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="B77" s="27"/>
+      <c r="B77" s="26"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="B78" s="27"/>
+      <c r="B78" s="26"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="B79" s="27"/>
+      <c r="B79" s="26"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="B80" s="27"/>
+      <c r="B80" s="26"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="B81" s="27"/>
+      <c r="B81" s="26"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="B82" s="27"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="B83" s="27"/>
+      <c r="B83" s="26"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="B84" s="27"/>
+      <c r="B84" s="26"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="B85" s="27"/>
+      <c r="B85" s="26"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="B86" s="27"/>
+      <c r="B86" s="26"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="B87" s="27"/>
+      <c r="B87" s="26"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="B88" s="27"/>
+      <c r="B88" s="26"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="B89" s="27"/>
+      <c r="B89" s="26"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="B90" s="27"/>
+      <c r="B90" s="26"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="B91" s="27"/>
+      <c r="B91" s="26"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="B92" s="27"/>
+      <c r="B92" s="26"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="B93" s="27"/>
+      <c r="B93" s="26"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="B94" s="27"/>
+      <c r="B94" s="26"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="B95" s="27"/>
+      <c r="B95" s="26"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="B96" s="27"/>
+      <c r="B96" s="26"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="B97" s="27"/>
+      <c r="B97" s="26"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="B98" s="27"/>
+      <c r="B98" s="26"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="B99" s="27"/>
+      <c r="B99" s="26"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="B100" s="27"/>
+      <c r="B100" s="26"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="B101" s="27"/>
+      <c r="B101" s="26"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="B102" s="27"/>
+      <c r="B102" s="26"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="B103" s="27"/>
+      <c r="B103" s="26"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="B104" s="27"/>
+      <c r="B104" s="26"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="B105" s="27"/>
+      <c r="B105" s="26"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="B106" s="27"/>
+      <c r="B106" s="26"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="B107" s="27"/>
+      <c r="B107" s="26"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="B108" s="27"/>
+      <c r="B108" s="26"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="B109" s="27"/>
+      <c r="B109" s="26"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="B110" s="27"/>
+      <c r="B110" s="26"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="B111" s="27"/>
+      <c r="B111" s="26"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="B112" s="27"/>
+      <c r="B112" s="26"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="B113" s="27"/>
+      <c r="B113" s="26"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="B114" s="27"/>
+      <c r="B114" s="26"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="B115" s="27"/>
+      <c r="B115" s="26"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="B116" s="27"/>
+      <c r="B116" s="26"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="B117" s="27"/>
+      <c r="B117" s="26"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="B118" s="27"/>
+      <c r="B118" s="26"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="B119" s="27"/>
+      <c r="B119" s="26"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="B120" s="27"/>
+      <c r="B120" s="26"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="B121" s="27"/>
+      <c r="B121" s="26"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="B122" s="27"/>
+      <c r="B122" s="26"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="B123" s="27"/>
+      <c r="B123" s="26"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="B124" s="27"/>
+      <c r="B124" s="26"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="B125" s="27"/>
+      <c r="B125" s="26"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="B126" s="27"/>
+      <c r="B126" s="26"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="B127" s="27"/>
+      <c r="B127" s="26"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="B128" s="27"/>
+      <c r="B128" s="26"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="B129" s="27"/>
+      <c r="B129" s="26"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="B130" s="27"/>
+      <c r="B130" s="26"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="B131" s="27"/>
+      <c r="B131" s="26"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="B132" s="27"/>
+      <c r="B132" s="26"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="B133" s="27"/>
+      <c r="B133" s="26"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="B134" s="27"/>
+      <c r="B134" s="26"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="B135" s="27"/>
+      <c r="B135" s="26"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="B136" s="27"/>
+      <c r="B136" s="26"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="B137" s="27"/>
+      <c r="B137" s="26"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="B138" s="27"/>
+      <c r="B138" s="26"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="B139" s="27"/>
+      <c r="B139" s="26"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="B140" s="27"/>
+      <c r="B140" s="26"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="B141" s="27"/>
+      <c r="B141" s="26"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="B142" s="27"/>
+      <c r="B142" s="26"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="B143" s="27"/>
+      <c r="B143" s="26"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="B144" s="27"/>
+      <c r="B144" s="26"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="B145" s="27"/>
+      <c r="B145" s="26"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="B146" s="27"/>
+      <c r="B146" s="26"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="B147" s="27"/>
+      <c r="B147" s="26"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="B148" s="27"/>
+      <c r="B148" s="26"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="B149" s="27"/>
+      <c r="B149" s="26"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="B150" s="27"/>
+      <c r="B150" s="26"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="B151" s="27"/>
+      <c r="B151" s="26"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="B152" s="27"/>
+      <c r="B152" s="26"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="B153" s="27"/>
+      <c r="B153" s="26"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="B154" s="27"/>
+      <c r="B154" s="26"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="B155" s="27"/>
+      <c r="B155" s="26"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="B156" s="27"/>
+      <c r="B156" s="26"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="B157" s="27"/>
+      <c r="B157" s="26"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="B158" s="27"/>
+      <c r="B158" s="26"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="B159" s="27"/>
+      <c r="B159" s="26"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="B160" s="27"/>
+      <c r="B160" s="26"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="B161" s="27"/>
+      <c r="B161" s="26"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="B162" s="27"/>
+      <c r="B162" s="26"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="B163" s="27"/>
+      <c r="B163" s="26"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="B164" s="27"/>
+      <c r="B164" s="26"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="B165" s="27"/>
+      <c r="B165" s="26"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="B166" s="27"/>
+      <c r="B166" s="26"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="B167" s="27"/>
+      <c r="B167" s="26"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="B168" s="27"/>
+      <c r="B168" s="26"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="B169" s="27"/>
+      <c r="B169" s="26"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="B170" s="27"/>
+      <c r="B170" s="26"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="B171" s="27"/>
+      <c r="B171" s="26"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="B172" s="27"/>
+      <c r="B172" s="26"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="B173" s="27"/>
+      <c r="B173" s="26"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="B174" s="27"/>
+      <c r="B174" s="26"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="B175" s="27"/>
+      <c r="B175" s="26"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="B176" s="27"/>
+      <c r="B176" s="26"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="B177" s="27"/>
+      <c r="B177" s="26"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="B178" s="27"/>
+      <c r="B178" s="26"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="B179" s="27"/>
+      <c r="B179" s="26"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="B180" s="27"/>
+      <c r="B180" s="26"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="B181" s="27"/>
+      <c r="B181" s="26"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="B182" s="27"/>
+      <c r="B182" s="26"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="B183" s="27"/>
+      <c r="B183" s="26"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="B184" s="27"/>
+      <c r="B184" s="26"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="B185" s="27"/>
+      <c r="B185" s="26"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="B186" s="27"/>
+      <c r="B186" s="26"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="B187" s="27"/>
+      <c r="B187" s="26"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="B188" s="27"/>
+      <c r="B188" s="26"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="B189" s="27"/>
+      <c r="B189" s="26"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="B190" s="27"/>
+      <c r="B190" s="26"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="B191" s="27"/>
+      <c r="B191" s="26"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="B192" s="27"/>
+      <c r="B192" s="26"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="B193" s="27"/>
+      <c r="B193" s="26"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="B194" s="27"/>
+      <c r="B194" s="26"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="B195" s="27"/>
+      <c r="B195" s="26"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="B196" s="27"/>
+      <c r="B196" s="26"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="B197" s="27"/>
+      <c r="B197" s="26"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="B198" s="27"/>
+      <c r="B198" s="26"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="B199" s="27"/>
+      <c r="B199" s="26"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="B200" s="27"/>
+      <c r="B200" s="26"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="B201" s="27"/>
+      <c r="B201" s="26"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="B202" s="27"/>
+      <c r="B202" s="26"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="B203" s="27"/>
+      <c r="B203" s="26"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="B204" s="27"/>
+      <c r="B204" s="26"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="B205" s="27"/>
+      <c r="B205" s="26"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="B206" s="27"/>
+      <c r="B206" s="26"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="B207" s="27"/>
+      <c r="B207" s="26"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="B208" s="27"/>
+      <c r="B208" s="26"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="B209" s="27"/>
+      <c r="B209" s="26"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="B210" s="27"/>
+      <c r="B210" s="26"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="B211" s="27"/>
+      <c r="B211" s="26"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="B212" s="27"/>
+      <c r="B212" s="26"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="B213" s="27"/>
+      <c r="B213" s="26"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="B214" s="27"/>
+      <c r="B214" s="26"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="B215" s="27"/>
+      <c r="B215" s="26"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="B216" s="27"/>
+      <c r="B216" s="26"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="B217" s="27"/>
+      <c r="B217" s="26"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="B218" s="27"/>
+      <c r="B218" s="26"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="B219" s="27"/>
+      <c r="B219" s="26"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="B220" s="27"/>
+      <c r="B220" s="26"/>
     </row>
     <row r="221" ht="14.25" customHeight="1">
-      <c r="B221" s="27"/>
+      <c r="B221" s="26"/>
     </row>
     <row r="222" ht="14.25" customHeight="1">
-      <c r="B222" s="27"/>
+      <c r="B222" s="26"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
-      <c r="B223" s="27"/>
+      <c r="B223" s="26"/>
     </row>
     <row r="224" ht="14.25" customHeight="1">
-      <c r="B224" s="27"/>
+      <c r="B224" s="26"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
-      <c r="B225" s="27"/>
+      <c r="B225" s="26"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
-      <c r="B226" s="27"/>
+      <c r="B226" s="26"/>
     </row>
     <row r="227" ht="14.25" customHeight="1">
-      <c r="B227" s="27"/>
+      <c r="B227" s="26"/>
     </row>
     <row r="228" ht="14.25" customHeight="1">
-      <c r="B228" s="27"/>
+      <c r="B228" s="26"/>
     </row>
     <row r="229" ht="14.25" customHeight="1">
-      <c r="B229" s="27"/>
+      <c r="B229" s="26"/>
     </row>
     <row r="230" ht="14.25" customHeight="1">
-      <c r="B230" s="27"/>
+      <c r="B230" s="26"/>
     </row>
     <row r="231" ht="14.25" customHeight="1">
-      <c r="B231" s="27"/>
+      <c r="B231" s="26"/>
     </row>
     <row r="232" ht="14.25" customHeight="1">
-      <c r="B232" s="27"/>
+      <c r="B232" s="26"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
-      <c r="B233" s="27"/>
+      <c r="B233" s="26"/>
     </row>
     <row r="234" ht="14.25" customHeight="1">
-      <c r="B234" s="27"/>
+      <c r="B234" s="26"/>
     </row>
     <row r="235" ht="14.25" customHeight="1">
-      <c r="B235" s="27"/>
+      <c r="B235" s="26"/>
     </row>
     <row r="236" ht="14.25" customHeight="1">
-      <c r="B236" s="27"/>
+      <c r="B236" s="26"/>
     </row>
     <row r="237" ht="14.25" customHeight="1">
-      <c r="B237" s="27"/>
+      <c r="B237" s="26"/>
     </row>
     <row r="238" ht="14.25" customHeight="1">
-      <c r="B238" s="27"/>
+      <c r="B238" s="26"/>
     </row>
     <row r="239" ht="14.25" customHeight="1">
-      <c r="B239" s="27"/>
+      <c r="B239" s="26"/>
     </row>
     <row r="240" ht="14.25" customHeight="1">
-      <c r="B240" s="27"/>
+      <c r="B240" s="26"/>
     </row>
     <row r="241" ht="14.25" customHeight="1">
-      <c r="B241" s="27"/>
+      <c r="B241" s="26"/>
     </row>
     <row r="242" ht="14.25" customHeight="1">
-      <c r="B242" s="27"/>
+      <c r="B242" s="26"/>
     </row>
     <row r="243" ht="14.25" customHeight="1">
-      <c r="B243" s="27"/>
+      <c r="B243" s="26"/>
     </row>
     <row r="244" ht="14.25" customHeight="1">
-      <c r="B244" s="27"/>
+      <c r="B244" s="26"/>
     </row>
     <row r="245" ht="14.25" customHeight="1">
-      <c r="B245" s="27"/>
+      <c r="B245" s="26"/>
     </row>
     <row r="246" ht="14.25" customHeight="1">
-      <c r="B246" s="27"/>
+      <c r="B246" s="26"/>
     </row>
     <row r="247" ht="14.25" customHeight="1">
-      <c r="B247" s="27"/>
+      <c r="B247" s="26"/>
     </row>
     <row r="248" ht="14.25" customHeight="1">
-      <c r="B248" s="27"/>
+      <c r="B248" s="26"/>
     </row>
     <row r="249" ht="14.25" customHeight="1">
-      <c r="B249" s="27"/>
+      <c r="B249" s="26"/>
     </row>
     <row r="250" ht="14.25" customHeight="1">
-      <c r="B250" s="27"/>
+      <c r="B250" s="26"/>
     </row>
     <row r="251" ht="14.25" customHeight="1">
-      <c r="B251" s="27"/>
+      <c r="B251" s="26"/>
     </row>
     <row r="252" ht="14.25" customHeight="1">
-      <c r="B252" s="27"/>
+      <c r="B252" s="26"/>
     </row>
     <row r="253" ht="14.25" customHeight="1">
-      <c r="B253" s="27"/>
+      <c r="B253" s="26"/>
     </row>
     <row r="254" ht="14.25" customHeight="1">
-      <c r="B254" s="27"/>
+      <c r="B254" s="26"/>
     </row>
     <row r="255" ht="14.25" customHeight="1">
-      <c r="B255" s="27"/>
+      <c r="B255" s="26"/>
     </row>
     <row r="256" ht="14.25" customHeight="1">
-      <c r="B256" s="27"/>
+      <c r="B256" s="26"/>
     </row>
     <row r="257" ht="14.25" customHeight="1">
-      <c r="B257" s="27"/>
+      <c r="B257" s="26"/>
     </row>
     <row r="258" ht="14.25" customHeight="1">
-      <c r="B258" s="27"/>
+      <c r="B258" s="26"/>
     </row>
     <row r="259" ht="14.25" customHeight="1">
-      <c r="B259" s="27"/>
+      <c r="B259" s="26"/>
     </row>
     <row r="260" ht="14.25" customHeight="1">
-      <c r="B260" s="27"/>
+      <c r="B260" s="26"/>
     </row>
     <row r="261" ht="14.25" customHeight="1">
-      <c r="B261" s="27"/>
+      <c r="B261" s="26"/>
     </row>
     <row r="262" ht="14.25" customHeight="1">
-      <c r="B262" s="27"/>
+      <c r="B262" s="26"/>
     </row>
     <row r="263" ht="14.25" customHeight="1">
-      <c r="B263" s="27"/>
+      <c r="B263" s="26"/>
     </row>
     <row r="264" ht="14.25" customHeight="1">
-      <c r="B264" s="27"/>
+      <c r="B264" s="26"/>
     </row>
     <row r="265" ht="14.25" customHeight="1">
-      <c r="B265" s="27"/>
+      <c r="B265" s="26"/>
     </row>
     <row r="266" ht="14.25" customHeight="1">
-      <c r="B266" s="27"/>
+      <c r="B266" s="26"/>
     </row>
     <row r="267" ht="14.25" customHeight="1">
-      <c r="B267" s="27"/>
+      <c r="B267" s="26"/>
     </row>
     <row r="268" ht="14.25" customHeight="1">
-      <c r="B268" s="27"/>
+      <c r="B268" s="26"/>
     </row>
     <row r="269" ht="14.25" customHeight="1">
-      <c r="B269" s="27"/>
+      <c r="B269" s="26"/>
     </row>
     <row r="270" ht="14.25" customHeight="1">
-      <c r="B270" s="27"/>
+      <c r="B270" s="26"/>
     </row>
     <row r="271" ht="14.25" customHeight="1">
-      <c r="B271" s="27"/>
+      <c r="B271" s="26"/>
     </row>
     <row r="272" ht="14.25" customHeight="1">
-      <c r="B272" s="27"/>
+      <c r="B272" s="26"/>
     </row>
     <row r="273" ht="14.25" customHeight="1">
-      <c r="B273" s="27"/>
+      <c r="B273" s="26"/>
     </row>
     <row r="274" ht="14.25" customHeight="1">
-      <c r="B274" s="27"/>
+      <c r="B274" s="26"/>
     </row>
     <row r="275" ht="14.25" customHeight="1">
-      <c r="B275" s="27"/>
+      <c r="B275" s="26"/>
     </row>
     <row r="276" ht="14.25" customHeight="1">
-      <c r="B276" s="27"/>
+      <c r="B276" s="26"/>
     </row>
     <row r="277" ht="14.25" customHeight="1">
-      <c r="B277" s="27"/>
+      <c r="B277" s="26"/>
     </row>
     <row r="278" ht="14.25" customHeight="1">
-      <c r="B278" s="27"/>
+      <c r="B278" s="26"/>
     </row>
     <row r="279" ht="14.25" customHeight="1">
-      <c r="B279" s="27"/>
+      <c r="B279" s="26"/>
     </row>
     <row r="280" ht="14.25" customHeight="1">
-      <c r="B280" s="27"/>
+      <c r="B280" s="26"/>
     </row>
     <row r="281" ht="14.25" customHeight="1">
-      <c r="B281" s="27"/>
+      <c r="B281" s="26"/>
     </row>
     <row r="282" ht="14.25" customHeight="1">
-      <c r="B282" s="27"/>
+      <c r="B282" s="26"/>
     </row>
     <row r="283" ht="14.25" customHeight="1">
-      <c r="B283" s="27"/>
+      <c r="B283" s="26"/>
     </row>
     <row r="284" ht="14.25" customHeight="1">
-      <c r="B284" s="27"/>
+      <c r="B284" s="26"/>
     </row>
     <row r="285" ht="14.25" customHeight="1">
-      <c r="B285" s="27"/>
+      <c r="B285" s="26"/>
     </row>
     <row r="286" ht="14.25" customHeight="1">
-      <c r="B286" s="27"/>
+      <c r="B286" s="26"/>
     </row>
     <row r="287" ht="14.25" customHeight="1">
-      <c r="B287" s="27"/>
+      <c r="B287" s="26"/>
     </row>
     <row r="288" ht="14.25" customHeight="1">
-      <c r="B288" s="27"/>
+      <c r="B288" s="26"/>
     </row>
     <row r="289" ht="14.25" customHeight="1">
-      <c r="B289" s="27"/>
+      <c r="B289" s="26"/>
     </row>
     <row r="290" ht="14.25" customHeight="1">
-      <c r="B290" s="27"/>
+      <c r="B290" s="26"/>
     </row>
     <row r="291" ht="14.25" customHeight="1">
-      <c r="B291" s="27"/>
+      <c r="B291" s="26"/>
     </row>
     <row r="292" ht="14.25" customHeight="1">
-      <c r="B292" s="27"/>
+      <c r="B292" s="26"/>
     </row>
     <row r="293" ht="14.25" customHeight="1">
-      <c r="B293" s="27"/>
+      <c r="B293" s="26"/>
     </row>
     <row r="294" ht="14.25" customHeight="1">
-      <c r="B294" s="27"/>
+      <c r="B294" s="26"/>
     </row>
     <row r="295" ht="14.25" customHeight="1">
-      <c r="B295" s="27"/>
+      <c r="B295" s="26"/>
     </row>
     <row r="296" ht="14.25" customHeight="1">
-      <c r="B296" s="27"/>
+      <c r="B296" s="26"/>
     </row>
     <row r="297" ht="14.25" customHeight="1">
-      <c r="B297" s="27"/>
+      <c r="B297" s="26"/>
     </row>
     <row r="298" ht="14.25" customHeight="1">
-      <c r="B298" s="27"/>
+      <c r="B298" s="26"/>
     </row>
     <row r="299" ht="14.25" customHeight="1">
-      <c r="B299" s="27"/>
+      <c r="B299" s="26"/>
     </row>
     <row r="300" ht="14.25" customHeight="1">
-      <c r="B300" s="27"/>
+      <c r="B300" s="26"/>
     </row>
     <row r="301" ht="14.25" customHeight="1">
-      <c r="B301" s="27"/>
+      <c r="B301" s="26"/>
     </row>
     <row r="302" ht="14.25" customHeight="1">
-      <c r="B302" s="27"/>
+      <c r="B302" s="26"/>
     </row>
     <row r="303" ht="14.25" customHeight="1">
-      <c r="B303" s="27"/>
+      <c r="B303" s="26"/>
     </row>
     <row r="304" ht="14.25" customHeight="1">
-      <c r="B304" s="27"/>
+      <c r="B304" s="26"/>
     </row>
     <row r="305" ht="14.25" customHeight="1">
-      <c r="B305" s="27"/>
+      <c r="B305" s="26"/>
     </row>
     <row r="306" ht="14.25" customHeight="1">
-      <c r="B306" s="27"/>
+      <c r="B306" s="26"/>
     </row>
     <row r="307" ht="14.25" customHeight="1">
-      <c r="B307" s="27"/>
+      <c r="B307" s="26"/>
     </row>
     <row r="308" ht="14.25" customHeight="1">
-      <c r="B308" s="27"/>
+      <c r="B308" s="26"/>
     </row>
     <row r="309" ht="14.25" customHeight="1">
-      <c r="B309" s="27"/>
+      <c r="B309" s="26"/>
     </row>
     <row r="310" ht="14.25" customHeight="1">
-      <c r="B310" s="27"/>
+      <c r="B310" s="26"/>
     </row>
     <row r="311" ht="14.25" customHeight="1">
-      <c r="B311" s="27"/>
+      <c r="B311" s="26"/>
     </row>
     <row r="312" ht="14.25" customHeight="1">
-      <c r="B312" s="27"/>
+      <c r="B312" s="26"/>
     </row>
     <row r="313" ht="14.25" customHeight="1">
-      <c r="B313" s="27"/>
+      <c r="B313" s="26"/>
     </row>
     <row r="314" ht="14.25" customHeight="1">
-      <c r="B314" s="27"/>
+      <c r="B314" s="26"/>
     </row>
     <row r="315" ht="14.25" customHeight="1">
-      <c r="B315" s="27"/>
+      <c r="B315" s="26"/>
     </row>
     <row r="316" ht="14.25" customHeight="1">
-      <c r="B316" s="27"/>
+      <c r="B316" s="26"/>
     </row>
     <row r="317" ht="14.25" customHeight="1">
-      <c r="B317" s="27"/>
+      <c r="B317" s="26"/>
     </row>
     <row r="318" ht="14.25" customHeight="1">
-      <c r="B318" s="27"/>
+      <c r="B318" s="26"/>
     </row>
     <row r="319" ht="14.25" customHeight="1">
-      <c r="B319" s="27"/>
+      <c r="B319" s="26"/>
     </row>
     <row r="320" ht="14.25" customHeight="1">
-      <c r="B320" s="27"/>
+      <c r="B320" s="26"/>
     </row>
     <row r="321" ht="14.25" customHeight="1">
-      <c r="B321" s="27"/>
+      <c r="B321" s="26"/>
     </row>
     <row r="322" ht="14.25" customHeight="1">
-      <c r="B322" s="27"/>
+      <c r="B322" s="26"/>
     </row>
     <row r="323" ht="14.25" customHeight="1">
-      <c r="B323" s="27"/>
+      <c r="B323" s="26"/>
     </row>
     <row r="324" ht="14.25" customHeight="1">
-      <c r="B324" s="27"/>
+      <c r="B324" s="26"/>
     </row>
     <row r="325" ht="14.25" customHeight="1">
-      <c r="B325" s="27"/>
+      <c r="B325" s="26"/>
     </row>
     <row r="326" ht="14.25" customHeight="1">
-      <c r="B326" s="27"/>
+      <c r="B326" s="26"/>
     </row>
     <row r="327" ht="14.25" customHeight="1">
-      <c r="B327" s="27"/>
+      <c r="B327" s="26"/>
     </row>
     <row r="328" ht="14.25" customHeight="1">
-      <c r="B328" s="27"/>
+      <c r="B328" s="26"/>
     </row>
     <row r="329" ht="14.25" customHeight="1">
-      <c r="B329" s="27"/>
+      <c r="B329" s="26"/>
     </row>
     <row r="330" ht="14.25" customHeight="1">
-      <c r="B330" s="27"/>
+      <c r="B330" s="26"/>
     </row>
     <row r="331" ht="14.25" customHeight="1">
-      <c r="B331" s="27"/>
+      <c r="B331" s="26"/>
     </row>
     <row r="332" ht="14.25" customHeight="1">
-      <c r="B332" s="27"/>
+      <c r="B332" s="26"/>
     </row>
     <row r="333" ht="14.25" customHeight="1">
-      <c r="B333" s="27"/>
+      <c r="B333" s="26"/>
     </row>
     <row r="334" ht="14.25" customHeight="1">
-      <c r="B334" s="27"/>
+      <c r="B334" s="26"/>
     </row>
     <row r="335" ht="14.25" customHeight="1">
-      <c r="B335" s="27"/>
+      <c r="B335" s="26"/>
     </row>
     <row r="336" ht="14.25" customHeight="1">
-      <c r="B336" s="27"/>
+      <c r="B336" s="26"/>
     </row>
     <row r="337" ht="14.25" customHeight="1">
-      <c r="B337" s="27"/>
+      <c r="B337" s="26"/>
     </row>
     <row r="338" ht="14.25" customHeight="1">
-      <c r="B338" s="27"/>
+      <c r="B338" s="26"/>
     </row>
     <row r="339" ht="14.25" customHeight="1">
-      <c r="B339" s="27"/>
+      <c r="B339" s="26"/>
     </row>
     <row r="340" ht="14.25" customHeight="1">
-      <c r="B340" s="27"/>
+      <c r="B340" s="26"/>
     </row>
     <row r="341" ht="14.25" customHeight="1">
-      <c r="B341" s="27"/>
+      <c r="B341" s="26"/>
     </row>
     <row r="342" ht="14.25" customHeight="1">
-      <c r="B342" s="27"/>
+      <c r="B342" s="26"/>
     </row>
     <row r="343" ht="14.25" customHeight="1">
-      <c r="B343" s="27"/>
+      <c r="B343" s="26"/>
     </row>
     <row r="344" ht="14.25" customHeight="1">
-      <c r="B344" s="27"/>
+      <c r="B344" s="26"/>
     </row>
     <row r="345" ht="14.25" customHeight="1">
-      <c r="B345" s="27"/>
+      <c r="B345" s="26"/>
     </row>
     <row r="346" ht="14.25" customHeight="1">
-      <c r="B346" s="27"/>
+      <c r="B346" s="26"/>
     </row>
     <row r="347" ht="14.25" customHeight="1">
-      <c r="B347" s="27"/>
+      <c r="B347" s="26"/>
     </row>
     <row r="348" ht="14.25" customHeight="1">
-      <c r="B348" s="27"/>
+      <c r="B348" s="26"/>
     </row>
     <row r="349" ht="14.25" customHeight="1">
-      <c r="B349" s="27"/>
+      <c r="B349" s="26"/>
     </row>
     <row r="350" ht="14.25" customHeight="1">
-      <c r="B350" s="27"/>
+      <c r="B350" s="26"/>
     </row>
     <row r="351" ht="14.25" customHeight="1">
-      <c r="B351" s="27"/>
+      <c r="B351" s="26"/>
     </row>
     <row r="352" ht="14.25" customHeight="1">
-      <c r="B352" s="27"/>
+      <c r="B352" s="26"/>
     </row>
     <row r="353" ht="14.25" customHeight="1">
-      <c r="B353" s="27"/>
+      <c r="B353" s="26"/>
     </row>
     <row r="354" ht="14.25" customHeight="1">
-      <c r="B354" s="27"/>
+      <c r="B354" s="26"/>
     </row>
     <row r="355" ht="14.25" customHeight="1">
-      <c r="B355" s="27"/>
+      <c r="B355" s="26"/>
     </row>
     <row r="356" ht="14.25" customHeight="1">
-      <c r="B356" s="27"/>
+      <c r="B356" s="26"/>
     </row>
     <row r="357" ht="14.25" customHeight="1">
-      <c r="B357" s="27"/>
+      <c r="B357" s="26"/>
     </row>
     <row r="358" ht="14.25" customHeight="1">
-      <c r="B358" s="27"/>
+      <c r="B358" s="26"/>
     </row>
     <row r="359" ht="14.25" customHeight="1">
-      <c r="B359" s="27"/>
+      <c r="B359" s="26"/>
     </row>
     <row r="360" ht="14.25" customHeight="1">
-      <c r="B360" s="27"/>
+      <c r="B360" s="26"/>
     </row>
     <row r="361" ht="14.25" customHeight="1">
-      <c r="B361" s="27"/>
+      <c r="B361" s="26"/>
     </row>
     <row r="362" ht="14.25" customHeight="1">
-      <c r="B362" s="27"/>
+      <c r="B362" s="26"/>
     </row>
     <row r="363" ht="14.25" customHeight="1">
-      <c r="B363" s="27"/>
+      <c r="B363" s="26"/>
     </row>
     <row r="364" ht="14.25" customHeight="1">
-      <c r="B364" s="27"/>
+      <c r="B364" s="26"/>
     </row>
     <row r="365" ht="14.25" customHeight="1">
-      <c r="B365" s="27"/>
+      <c r="B365" s="26"/>
     </row>
     <row r="366" ht="14.25" customHeight="1">
-      <c r="B366" s="27"/>
+      <c r="B366" s="26"/>
     </row>
     <row r="367" ht="14.25" customHeight="1">
-      <c r="B367" s="27"/>
+      <c r="B367" s="26"/>
     </row>
     <row r="368" ht="14.25" customHeight="1">
-      <c r="B368" s="27"/>
+      <c r="B368" s="26"/>
     </row>
     <row r="369" ht="14.25" customHeight="1">
-      <c r="B369" s="27"/>
+      <c r="B369" s="26"/>
     </row>
     <row r="370" ht="14.25" customHeight="1">
-      <c r="B370" s="27"/>
+      <c r="B370" s="26"/>
     </row>
     <row r="371" ht="14.25" customHeight="1">
-      <c r="B371" s="27"/>
+      <c r="B371" s="26"/>
     </row>
     <row r="372" ht="14.25" customHeight="1">
-      <c r="B372" s="27"/>
+      <c r="B372" s="26"/>
     </row>
     <row r="373" ht="14.25" customHeight="1">
-      <c r="B373" s="27"/>
+      <c r="B373" s="26"/>
     </row>
     <row r="374" ht="14.25" customHeight="1">
-      <c r="B374" s="27"/>
+      <c r="B374" s="26"/>
     </row>
     <row r="375" ht="14.25" customHeight="1">
-      <c r="B375" s="27"/>
+      <c r="B375" s="26"/>
     </row>
     <row r="376" ht="14.25" customHeight="1">
-      <c r="B376" s="27"/>
+      <c r="B376" s="26"/>
     </row>
     <row r="377" ht="14.25" customHeight="1">
-      <c r="B377" s="27"/>
+      <c r="B377" s="26"/>
     </row>
     <row r="378" ht="14.25" customHeight="1">
-      <c r="B378" s="27"/>
+      <c r="B378" s="26"/>
     </row>
     <row r="379" ht="14.25" customHeight="1">
-      <c r="B379" s="27"/>
+      <c r="B379" s="26"/>
     </row>
     <row r="380" ht="14.25" customHeight="1">
-      <c r="B380" s="27"/>
+      <c r="B380" s="26"/>
     </row>
     <row r="381" ht="14.25" customHeight="1">
-      <c r="B381" s="27"/>
+      <c r="B381" s="26"/>
     </row>
     <row r="382" ht="14.25" customHeight="1">
-      <c r="B382" s="27"/>
+      <c r="B382" s="26"/>
     </row>
     <row r="383" ht="14.25" customHeight="1">
-      <c r="B383" s="27"/>
+      <c r="B383" s="26"/>
     </row>
     <row r="384" ht="14.25" customHeight="1">
-      <c r="B384" s="27"/>
+      <c r="B384" s="26"/>
     </row>
     <row r="385" ht="14.25" customHeight="1">
-      <c r="B385" s="27"/>
+      <c r="B385" s="26"/>
     </row>
     <row r="386" ht="14.25" customHeight="1">
-      <c r="B386" s="27"/>
+      <c r="B386" s="26"/>
     </row>
     <row r="387" ht="14.25" customHeight="1">
-      <c r="B387" s="27"/>
+      <c r="B387" s="26"/>
     </row>
     <row r="388" ht="14.25" customHeight="1">
-      <c r="B388" s="27"/>
+      <c r="B388" s="26"/>
     </row>
     <row r="389" ht="14.25" customHeight="1">
-      <c r="B389" s="27"/>
+      <c r="B389" s="26"/>
     </row>
     <row r="390" ht="14.25" customHeight="1">
-      <c r="B390" s="27"/>
+      <c r="B390" s="26"/>
     </row>
     <row r="391" ht="14.25" customHeight="1">
-      <c r="B391" s="27"/>
+      <c r="B391" s="26"/>
     </row>
     <row r="392" ht="14.25" customHeight="1">
-      <c r="B392" s="27"/>
+      <c r="B392" s="26"/>
     </row>
     <row r="393" ht="14.25" customHeight="1">
-      <c r="B393" s="27"/>
+      <c r="B393" s="26"/>
     </row>
     <row r="394" ht="14.25" customHeight="1">
-      <c r="B394" s="27"/>
+      <c r="B394" s="26"/>
     </row>
     <row r="395" ht="14.25" customHeight="1">
-      <c r="B395" s="27"/>
+      <c r="B395" s="26"/>
     </row>
     <row r="396" ht="14.25" customHeight="1">
-      <c r="B396" s="27"/>
+      <c r="B396" s="26"/>
     </row>
     <row r="397" ht="14.25" customHeight="1">
-      <c r="B397" s="27"/>
+      <c r="B397" s="26"/>
     </row>
     <row r="398" ht="14.25" customHeight="1">
-      <c r="B398" s="27"/>
+      <c r="B398" s="26"/>
     </row>
     <row r="399" ht="14.25" customHeight="1">
-      <c r="B399" s="27"/>
+      <c r="B399" s="26"/>
     </row>
     <row r="400" ht="14.25" customHeight="1">
-      <c r="B400" s="27"/>
+      <c r="B400" s="26"/>
     </row>
     <row r="401" ht="14.25" customHeight="1">
-      <c r="B401" s="27"/>
+      <c r="B401" s="26"/>
     </row>
     <row r="402" ht="14.25" customHeight="1">
-      <c r="B402" s="27"/>
+      <c r="B402" s="26"/>
     </row>
     <row r="403" ht="14.25" customHeight="1">
-      <c r="B403" s="27"/>
+      <c r="B403" s="26"/>
     </row>
     <row r="404" ht="14.25" customHeight="1">
-      <c r="B404" s="27"/>
+      <c r="B404" s="26"/>
     </row>
     <row r="405" ht="14.25" customHeight="1">
-      <c r="B405" s="27"/>
+      <c r="B405" s="26"/>
     </row>
     <row r="406" ht="14.25" customHeight="1">
-      <c r="B406" s="27"/>
+      <c r="B406" s="26"/>
     </row>
     <row r="407" ht="14.25" customHeight="1">
-      <c r="B407" s="27"/>
+      <c r="B407" s="26"/>
     </row>
     <row r="408" ht="14.25" customHeight="1">
-      <c r="B408" s="27"/>
+      <c r="B408" s="26"/>
     </row>
     <row r="409" ht="14.25" customHeight="1">
-      <c r="B409" s="27"/>
+      <c r="B409" s="26"/>
     </row>
     <row r="410" ht="14.25" customHeight="1">
-      <c r="B410" s="27"/>
+      <c r="B410" s="26"/>
     </row>
     <row r="411" ht="14.25" customHeight="1">
-      <c r="B411" s="27"/>
+      <c r="B411" s="26"/>
     </row>
     <row r="412" ht="14.25" customHeight="1">
-      <c r="B412" s="27"/>
+      <c r="B412" s="26"/>
     </row>
     <row r="413" ht="14.25" customHeight="1">
-      <c r="B413" s="27"/>
+      <c r="B413" s="26"/>
     </row>
     <row r="414" ht="14.25" customHeight="1">
-      <c r="B414" s="27"/>
+      <c r="B414" s="26"/>
     </row>
     <row r="415" ht="14.25" customHeight="1">
-      <c r="B415" s="27"/>
+      <c r="B415" s="26"/>
     </row>
     <row r="416" ht="14.25" customHeight="1">
-      <c r="B416" s="27"/>
+      <c r="B416" s="26"/>
     </row>
     <row r="417" ht="14.25" customHeight="1">
-      <c r="B417" s="27"/>
+      <c r="B417" s="26"/>
     </row>
     <row r="418" ht="14.25" customHeight="1">
-      <c r="B418" s="27"/>
+      <c r="B418" s="26"/>
     </row>
     <row r="419" ht="14.25" customHeight="1">
-      <c r="B419" s="27"/>
+      <c r="B419" s="26"/>
     </row>
     <row r="420" ht="14.25" customHeight="1">
-      <c r="B420" s="27"/>
+      <c r="B420" s="26"/>
     </row>
     <row r="421" ht="14.25" customHeight="1">
-      <c r="B421" s="27"/>
+      <c r="B421" s="26"/>
     </row>
     <row r="422" ht="14.25" customHeight="1">
-      <c r="B422" s="27"/>
+      <c r="B422" s="26"/>
     </row>
     <row r="423" ht="14.25" customHeight="1">
-      <c r="B423" s="27"/>
+      <c r="B423" s="26"/>
     </row>
     <row r="424" ht="14.25" customHeight="1">
-      <c r="B424" s="27"/>
+      <c r="B424" s="26"/>
     </row>
     <row r="425" ht="14.25" customHeight="1">
-      <c r="B425" s="27"/>
+      <c r="B425" s="26"/>
     </row>
     <row r="426" ht="14.25" customHeight="1">
-      <c r="B426" s="27"/>
+      <c r="B426" s="26"/>
     </row>
     <row r="427" ht="14.25" customHeight="1">
-      <c r="B427" s="27"/>
+      <c r="B427" s="26"/>
     </row>
     <row r="428" ht="14.25" customHeight="1">
-      <c r="B428" s="27"/>
+      <c r="B428" s="26"/>
     </row>
     <row r="429" ht="14.25" customHeight="1">
-      <c r="B429" s="27"/>
+      <c r="B429" s="26"/>
     </row>
     <row r="430" ht="14.25" customHeight="1">
-      <c r="B430" s="27"/>
+      <c r="B430" s="26"/>
     </row>
     <row r="431" ht="14.25" customHeight="1">
-      <c r="B431" s="27"/>
+      <c r="B431" s="26"/>
     </row>
     <row r="432" ht="14.25" customHeight="1">
-      <c r="B432" s="27"/>
+      <c r="B432" s="26"/>
     </row>
     <row r="433" ht="14.25" customHeight="1">
-      <c r="B433" s="27"/>
+      <c r="B433" s="26"/>
     </row>
     <row r="434" ht="14.25" customHeight="1">
-      <c r="B434" s="27"/>
+      <c r="B434" s="26"/>
     </row>
     <row r="435" ht="14.25" customHeight="1">
-      <c r="B435" s="27"/>
+      <c r="B435" s="26"/>
     </row>
     <row r="436" ht="14.25" customHeight="1">
-      <c r="B436" s="27"/>
+      <c r="B436" s="26"/>
     </row>
     <row r="437" ht="14.25" customHeight="1">
-      <c r="B437" s="27"/>
+      <c r="B437" s="26"/>
     </row>
     <row r="438" ht="14.25" customHeight="1">
-      <c r="B438" s="27"/>
+      <c r="B438" s="26"/>
     </row>
     <row r="439" ht="14.25" customHeight="1">
-      <c r="B439" s="27"/>
+      <c r="B439" s="26"/>
     </row>
     <row r="440" ht="14.25" customHeight="1">
-      <c r="B440" s="27"/>
+      <c r="B440" s="26"/>
     </row>
     <row r="441" ht="14.25" customHeight="1">
-      <c r="B441" s="27"/>
+      <c r="B441" s="26"/>
     </row>
     <row r="442" ht="14.25" customHeight="1">
-      <c r="B442" s="27"/>
+      <c r="B442" s="26"/>
     </row>
     <row r="443" ht="14.25" customHeight="1">
-      <c r="B443" s="27"/>
+      <c r="B443" s="26"/>
     </row>
     <row r="444" ht="14.25" customHeight="1">
-      <c r="B444" s="27"/>
+      <c r="B444" s="26"/>
     </row>
     <row r="445" ht="14.25" customHeight="1">
-      <c r="B445" s="27"/>
+      <c r="B445" s="26"/>
     </row>
     <row r="446" ht="14.25" customHeight="1">
-      <c r="B446" s="27"/>
+      <c r="B446" s="26"/>
     </row>
     <row r="447" ht="14.25" customHeight="1">
-      <c r="B447" s="27"/>
+      <c r="B447" s="26"/>
     </row>
     <row r="448" ht="14.25" customHeight="1">
-      <c r="B448" s="27"/>
+      <c r="B448" s="26"/>
     </row>
     <row r="449" ht="14.25" customHeight="1">
-      <c r="B449" s="27"/>
+      <c r="B449" s="26"/>
     </row>
     <row r="450" ht="14.25" customHeight="1">
-      <c r="B450" s="27"/>
+      <c r="B450" s="26"/>
     </row>
     <row r="451" ht="14.25" customHeight="1">
-      <c r="B451" s="27"/>
+      <c r="B451" s="26"/>
     </row>
     <row r="452" ht="14.25" customHeight="1">
-      <c r="B452" s="27"/>
+      <c r="B452" s="26"/>
     </row>
     <row r="453" ht="14.25" customHeight="1">
-      <c r="B453" s="27"/>
+      <c r="B453" s="26"/>
     </row>
     <row r="454" ht="14.25" customHeight="1">
-      <c r="B454" s="27"/>
+      <c r="B454" s="26"/>
     </row>
     <row r="455" ht="14.25" customHeight="1">
-      <c r="B455" s="27"/>
+      <c r="B455" s="26"/>
     </row>
     <row r="456" ht="14.25" customHeight="1">
-      <c r="B456" s="27"/>
+      <c r="B456" s="26"/>
     </row>
     <row r="457" ht="14.25" customHeight="1">
-      <c r="B457" s="27"/>
+      <c r="B457" s="26"/>
     </row>
     <row r="458" ht="14.25" customHeight="1">
-      <c r="B458" s="27"/>
+      <c r="B458" s="26"/>
     </row>
     <row r="459" ht="14.25" customHeight="1">
-      <c r="B459" s="27"/>
+      <c r="B459" s="26"/>
     </row>
     <row r="460" ht="14.25" customHeight="1">
-      <c r="B460" s="27"/>
+      <c r="B460" s="26"/>
     </row>
     <row r="461" ht="14.25" customHeight="1">
-      <c r="B461" s="27"/>
+      <c r="B461" s="26"/>
     </row>
     <row r="462" ht="14.25" customHeight="1">
-      <c r="B462" s="27"/>
+      <c r="B462" s="26"/>
     </row>
     <row r="463" ht="14.25" customHeight="1">
-      <c r="B463" s="27"/>
+      <c r="B463" s="26"/>
     </row>
     <row r="464" ht="14.25" customHeight="1">
-      <c r="B464" s="27"/>
+      <c r="B464" s="26"/>
     </row>
     <row r="465" ht="14.25" customHeight="1">
-      <c r="B465" s="27"/>
+      <c r="B465" s="26"/>
     </row>
     <row r="466" ht="14.25" customHeight="1">
-      <c r="B466" s="27"/>
+      <c r="B466" s="26"/>
     </row>
     <row r="467" ht="14.25" customHeight="1">
-      <c r="B467" s="27"/>
+      <c r="B467" s="26"/>
     </row>
     <row r="468" ht="14.25" customHeight="1">
-      <c r="B468" s="27"/>
+      <c r="B468" s="26"/>
     </row>
     <row r="469" ht="14.25" customHeight="1">
-      <c r="B469" s="27"/>
+      <c r="B469" s="26"/>
     </row>
     <row r="470" ht="14.25" customHeight="1">
-      <c r="B470" s="27"/>
+      <c r="B470" s="26"/>
     </row>
     <row r="471" ht="14.25" customHeight="1">
-      <c r="B471" s="27"/>
+      <c r="B471" s="26"/>
     </row>
     <row r="472" ht="14.25" customHeight="1">
-      <c r="B472" s="27"/>
+      <c r="B472" s="26"/>
     </row>
     <row r="473" ht="14.25" customHeight="1">
-      <c r="B473" s="27"/>
+      <c r="B473" s="26"/>
     </row>
     <row r="474" ht="14.25" customHeight="1">
-      <c r="B474" s="27"/>
+      <c r="B474" s="26"/>
     </row>
     <row r="475" ht="14.25" customHeight="1">
-      <c r="B475" s="27"/>
+      <c r="B475" s="26"/>
     </row>
     <row r="476" ht="14.25" customHeight="1">
-      <c r="B476" s="27"/>
+      <c r="B476" s="26"/>
     </row>
     <row r="477" ht="14.25" customHeight="1">
-      <c r="B477" s="27"/>
+      <c r="B477" s="26"/>
     </row>
     <row r="478" ht="14.25" customHeight="1">
-      <c r="B478" s="27"/>
+      <c r="B478" s="26"/>
     </row>
     <row r="479" ht="14.25" customHeight="1">
-      <c r="B479" s="27"/>
+      <c r="B479" s="26"/>
     </row>
     <row r="480" ht="14.25" customHeight="1">
-      <c r="B480" s="27"/>
+      <c r="B480" s="26"/>
     </row>
     <row r="481" ht="14.25" customHeight="1">
-      <c r="B481" s="27"/>
+      <c r="B481" s="26"/>
     </row>
     <row r="482" ht="14.25" customHeight="1">
-      <c r="B482" s="27"/>
+      <c r="B482" s="26"/>
     </row>
     <row r="483" ht="14.25" customHeight="1">
-      <c r="B483" s="27"/>
+      <c r="B483" s="26"/>
     </row>
     <row r="484" ht="14.25" customHeight="1">
-      <c r="B484" s="27"/>
+      <c r="B484" s="26"/>
     </row>
     <row r="485" ht="14.25" customHeight="1">
-      <c r="B485" s="27"/>
+      <c r="B485" s="26"/>
     </row>
     <row r="486" ht="14.25" customHeight="1">
-      <c r="B486" s="27"/>
+      <c r="B486" s="26"/>
     </row>
     <row r="487" ht="14.25" customHeight="1">
-      <c r="B487" s="27"/>
+      <c r="B487" s="26"/>
     </row>
     <row r="488" ht="14.25" customHeight="1">
-      <c r="B488" s="27"/>
+      <c r="B488" s="26"/>
     </row>
     <row r="489" ht="14.25" customHeight="1">
-      <c r="B489" s="27"/>
+      <c r="B489" s="26"/>
     </row>
     <row r="490" ht="14.25" customHeight="1">
-      <c r="B490" s="27"/>
+      <c r="B490" s="26"/>
     </row>
     <row r="491" ht="14.25" customHeight="1">
-      <c r="B491" s="27"/>
+      <c r="B491" s="26"/>
     </row>
     <row r="492" ht="14.25" customHeight="1">
-      <c r="B492" s="27"/>
+      <c r="B492" s="26"/>
     </row>
     <row r="493" ht="14.25" customHeight="1">
-      <c r="B493" s="27"/>
+      <c r="B493" s="26"/>
     </row>
     <row r="494" ht="14.25" customHeight="1">
-      <c r="B494" s="27"/>
+      <c r="B494" s="26"/>
     </row>
     <row r="495" ht="14.25" customHeight="1">
-      <c r="B495" s="27"/>
+      <c r="B495" s="26"/>
     </row>
     <row r="496" ht="14.25" customHeight="1">
-      <c r="B496" s="27"/>
+      <c r="B496" s="26"/>
     </row>
     <row r="497" ht="14.25" customHeight="1">
-      <c r="B497" s="27"/>
+      <c r="B497" s="26"/>
     </row>
     <row r="498" ht="14.25" customHeight="1">
-      <c r="B498" s="27"/>
+      <c r="B498" s="26"/>
     </row>
     <row r="499" ht="14.25" customHeight="1">
-      <c r="B499" s="27"/>
+      <c r="B499" s="26"/>
     </row>
     <row r="500" ht="14.25" customHeight="1">
-      <c r="B500" s="27"/>
+      <c r="B500" s="26"/>
     </row>
     <row r="501" ht="14.25" customHeight="1">
-      <c r="B501" s="27"/>
+      <c r="B501" s="26"/>
     </row>
     <row r="502" ht="14.25" customHeight="1">
-      <c r="B502" s="27"/>
+      <c r="B502" s="26"/>
     </row>
     <row r="503" ht="14.25" customHeight="1">
-      <c r="B503" s="27"/>
+      <c r="B503" s="26"/>
     </row>
     <row r="504" ht="14.25" customHeight="1">
-      <c r="B504" s="27"/>
+      <c r="B504" s="26"/>
     </row>
     <row r="505" ht="14.25" customHeight="1">
-      <c r="B505" s="27"/>
+      <c r="B505" s="26"/>
     </row>
     <row r="506" ht="14.25" customHeight="1">
-      <c r="B506" s="27"/>
+      <c r="B506" s="26"/>
     </row>
     <row r="507" ht="14.25" customHeight="1">
-      <c r="B507" s="27"/>
+      <c r="B507" s="26"/>
     </row>
     <row r="508" ht="14.25" customHeight="1">
-      <c r="B508" s="27"/>
+      <c r="B508" s="26"/>
     </row>
     <row r="509" ht="14.25" customHeight="1">
-      <c r="B509" s="27"/>
+      <c r="B509" s="26"/>
     </row>
     <row r="510" ht="14.25" customHeight="1">
-      <c r="B510" s="27"/>
+      <c r="B510" s="26"/>
     </row>
     <row r="511" ht="14.25" customHeight="1">
-      <c r="B511" s="27"/>
+      <c r="B511" s="26"/>
     </row>
     <row r="512" ht="14.25" customHeight="1">
-      <c r="B512" s="27"/>
+      <c r="B512" s="26"/>
     </row>
     <row r="513" ht="14.25" customHeight="1">
-      <c r="B513" s="27"/>
+      <c r="B513" s="26"/>
     </row>
     <row r="514" ht="14.25" customHeight="1">
-      <c r="B514" s="27"/>
+      <c r="B514" s="26"/>
     </row>
     <row r="515" ht="14.25" customHeight="1">
-      <c r="B515" s="27"/>
+      <c r="B515" s="26"/>
     </row>
     <row r="516" ht="14.25" customHeight="1">
-      <c r="B516" s="27"/>
+      <c r="B516" s="26"/>
     </row>
     <row r="517" ht="14.25" customHeight="1">
-      <c r="B517" s="27"/>
+      <c r="B517" s="26"/>
     </row>
     <row r="518" ht="14.25" customHeight="1">
-      <c r="B518" s="27"/>
+      <c r="B518" s="26"/>
     </row>
     <row r="519" ht="14.25" customHeight="1">
-      <c r="B519" s="27"/>
+      <c r="B519" s="26"/>
     </row>
     <row r="520" ht="14.25" customHeight="1">
-      <c r="B520" s="27"/>
+      <c r="B520" s="26"/>
     </row>
     <row r="521" ht="14.25" customHeight="1">
-      <c r="B521" s="27"/>
+      <c r="B521" s="26"/>
     </row>
     <row r="522" ht="14.25" customHeight="1">
-      <c r="B522" s="27"/>
+      <c r="B522" s="26"/>
     </row>
     <row r="523" ht="14.25" customHeight="1">
-      <c r="B523" s="27"/>
+      <c r="B523" s="26"/>
     </row>
     <row r="524" ht="14.25" customHeight="1">
-      <c r="B524" s="27"/>
+      <c r="B524" s="26"/>
     </row>
     <row r="525" ht="14.25" customHeight="1">
-      <c r="B525" s="27"/>
+      <c r="B525" s="26"/>
     </row>
     <row r="526" ht="14.25" customHeight="1">
-      <c r="B526" s="27"/>
+      <c r="B526" s="26"/>
     </row>
     <row r="527" ht="14.25" customHeight="1">
-      <c r="B527" s="27"/>
+      <c r="B527" s="26"/>
     </row>
     <row r="528" ht="14.25" customHeight="1">
-      <c r="B528" s="27"/>
+      <c r="B528" s="26"/>
     </row>
     <row r="529" ht="14.25" customHeight="1">
-      <c r="B529" s="27"/>
+      <c r="B529" s="26"/>
     </row>
     <row r="530" ht="14.25" customHeight="1">
-      <c r="B530" s="27"/>
+      <c r="B530" s="26"/>
     </row>
     <row r="531" ht="14.25" customHeight="1">
-      <c r="B531" s="27"/>
+      <c r="B531" s="26"/>
     </row>
     <row r="532" ht="14.25" customHeight="1">
-      <c r="B532" s="27"/>
+      <c r="B532" s="26"/>
     </row>
     <row r="533" ht="14.25" customHeight="1">
-      <c r="B533" s="27"/>
+      <c r="B533" s="26"/>
     </row>
     <row r="534" ht="14.25" customHeight="1">
-      <c r="B534" s="27"/>
+      <c r="B534" s="26"/>
     </row>
     <row r="535" ht="14.25" customHeight="1">
-      <c r="B535" s="27"/>
+      <c r="B535" s="26"/>
     </row>
     <row r="536" ht="14.25" customHeight="1">
-      <c r="B536" s="27"/>
+      <c r="B536" s="26"/>
     </row>
     <row r="537" ht="14.25" customHeight="1">
-      <c r="B537" s="27"/>
+      <c r="B537" s="26"/>
     </row>
     <row r="538" ht="14.25" customHeight="1">
-      <c r="B538" s="27"/>
+      <c r="B538" s="26"/>
     </row>
     <row r="539" ht="14.25" customHeight="1">
-      <c r="B539" s="27"/>
+      <c r="B539" s="26"/>
     </row>
     <row r="540" ht="14.25" customHeight="1">
-      <c r="B540" s="27"/>
+      <c r="B540" s="26"/>
     </row>
     <row r="541" ht="14.25" customHeight="1">
-      <c r="B541" s="27"/>
+      <c r="B541" s="26"/>
     </row>
     <row r="542" ht="14.25" customHeight="1">
-      <c r="B542" s="27"/>
+      <c r="B542" s="26"/>
     </row>
     <row r="543" ht="14.25" customHeight="1">
-      <c r="B543" s="27"/>
+      <c r="B543" s="26"/>
     </row>
     <row r="544" ht="14.25" customHeight="1">
-      <c r="B544" s="27"/>
+      <c r="B544" s="26"/>
     </row>
     <row r="545" ht="14.25" customHeight="1">
-      <c r="B545" s="27"/>
+      <c r="B545" s="26"/>
     </row>
     <row r="546" ht="14.25" customHeight="1">
-      <c r="B546" s="27"/>
+      <c r="B546" s="26"/>
     </row>
     <row r="547" ht="14.25" customHeight="1">
-      <c r="B547" s="27"/>
+      <c r="B547" s="26"/>
     </row>
     <row r="548" ht="14.25" customHeight="1">
-      <c r="B548" s="27"/>
+      <c r="B548" s="26"/>
     </row>
     <row r="549" ht="14.25" customHeight="1">
-      <c r="B549" s="27"/>
+      <c r="B549" s="26"/>
     </row>
     <row r="550" ht="14.25" customHeight="1">
-      <c r="B550" s="27"/>
+      <c r="B550" s="26"/>
     </row>
     <row r="551" ht="14.25" customHeight="1">
-      <c r="B551" s="27"/>
+      <c r="B551" s="26"/>
     </row>
     <row r="552" ht="14.25" customHeight="1">
-      <c r="B552" s="27"/>
+      <c r="B552" s="26"/>
     </row>
     <row r="553" ht="14.25" customHeight="1">
-      <c r="B553" s="27"/>
+      <c r="B553" s="26"/>
     </row>
     <row r="554" ht="14.25" customHeight="1">
-      <c r="B554" s="27"/>
+      <c r="B554" s="26"/>
     </row>
     <row r="555" ht="14.25" customHeight="1">
-      <c r="B555" s="27"/>
+      <c r="B555" s="26"/>
     </row>
     <row r="556" ht="14.25" customHeight="1">
-      <c r="B556" s="27"/>
+      <c r="B556" s="26"/>
     </row>
     <row r="557" ht="14.25" customHeight="1">
-      <c r="B557" s="27"/>
+      <c r="B557" s="26"/>
     </row>
     <row r="558" ht="14.25" customHeight="1">
-      <c r="B558" s="27"/>
+      <c r="B558" s="26"/>
     </row>
     <row r="559" ht="14.25" customHeight="1">
-      <c r="B559" s="27"/>
+      <c r="B559" s="26"/>
     </row>
     <row r="560" ht="14.25" customHeight="1">
-      <c r="B560" s="27"/>
+      <c r="B560" s="26"/>
     </row>
     <row r="561" ht="14.25" customHeight="1">
-      <c r="B561" s="27"/>
+      <c r="B561" s="26"/>
     </row>
     <row r="562" ht="14.25" customHeight="1">
-      <c r="B562" s="27"/>
+      <c r="B562" s="26"/>
     </row>
     <row r="563" ht="14.25" customHeight="1">
-      <c r="B563" s="27"/>
+      <c r="B563" s="26"/>
     </row>
     <row r="564" ht="14.25" customHeight="1">
-      <c r="B564" s="27"/>
+      <c r="B564" s="26"/>
     </row>
     <row r="565" ht="14.25" customHeight="1">
-      <c r="B565" s="27"/>
+      <c r="B565" s="26"/>
     </row>
     <row r="566" ht="14.25" customHeight="1">
-      <c r="B566" s="27"/>
+      <c r="B566" s="26"/>
     </row>
     <row r="567" ht="14.25" customHeight="1">
-      <c r="B567" s="27"/>
+      <c r="B567" s="26"/>
     </row>
     <row r="568" ht="14.25" customHeight="1">
-      <c r="B568" s="27"/>
+      <c r="B568" s="26"/>
     </row>
     <row r="569" ht="14.25" customHeight="1">
-      <c r="B569" s="27"/>
+      <c r="B569" s="26"/>
     </row>
     <row r="570" ht="14.25" customHeight="1">
-      <c r="B570" s="27"/>
+      <c r="B570" s="26"/>
     </row>
     <row r="571" ht="14.25" customHeight="1">
-      <c r="B571" s="27"/>
+      <c r="B571" s="26"/>
     </row>
     <row r="572" ht="14.25" customHeight="1">
-      <c r="B572" s="27"/>
+      <c r="B572" s="26"/>
     </row>
     <row r="573" ht="14.25" customHeight="1">
-      <c r="B573" s="27"/>
+      <c r="B573" s="26"/>
     </row>
     <row r="574" ht="14.25" customHeight="1">
-      <c r="B574" s="27"/>
+      <c r="B574" s="26"/>
     </row>
     <row r="575" ht="14.25" customHeight="1">
-      <c r="B575" s="27"/>
+      <c r="B575" s="26"/>
     </row>
     <row r="576" ht="14.25" customHeight="1">
-      <c r="B576" s="27"/>
+      <c r="B576" s="26"/>
     </row>
     <row r="577" ht="14.25" customHeight="1">
-      <c r="B577" s="27"/>
+      <c r="B577" s="26"/>
     </row>
     <row r="578" ht="14.25" customHeight="1">
-      <c r="B578" s="27"/>
+      <c r="B578" s="26"/>
     </row>
     <row r="579" ht="14.25" customHeight="1">
-      <c r="B579" s="27"/>
+      <c r="B579" s="26"/>
     </row>
     <row r="580" ht="14.25" customHeight="1">
-      <c r="B580" s="27"/>
+      <c r="B580" s="26"/>
     </row>
     <row r="581" ht="14.25" customHeight="1">
-      <c r="B581" s="27"/>
+      <c r="B581" s="26"/>
     </row>
     <row r="582" ht="14.25" customHeight="1">
-      <c r="B582" s="27"/>
+      <c r="B582" s="26"/>
     </row>
     <row r="583" ht="14.25" customHeight="1">
-      <c r="B583" s="27"/>
+      <c r="B583" s="26"/>
     </row>
     <row r="584" ht="14.25" customHeight="1">
-      <c r="B584" s="27"/>
+      <c r="B584" s="26"/>
     </row>
     <row r="585" ht="14.25" customHeight="1">
-      <c r="B585" s="27"/>
+      <c r="B585" s="26"/>
     </row>
     <row r="586" ht="14.25" customHeight="1">
-      <c r="B586" s="27"/>
+      <c r="B586" s="26"/>
     </row>
     <row r="587" ht="14.25" customHeight="1">
-      <c r="B587" s="27"/>
+      <c r="B587" s="26"/>
     </row>
     <row r="588" ht="14.25" customHeight="1">
-      <c r="B588" s="27"/>
+      <c r="B588" s="26"/>
     </row>
     <row r="589" ht="14.25" customHeight="1">
-      <c r="B589" s="27"/>
+      <c r="B589" s="26"/>
     </row>
     <row r="590" ht="14.25" customHeight="1">
-      <c r="B590" s="27"/>
+      <c r="B590" s="26"/>
     </row>
     <row r="591" ht="14.25" customHeight="1">
-      <c r="B591" s="27"/>
+      <c r="B591" s="26"/>
     </row>
     <row r="592" ht="14.25" customHeight="1">
-      <c r="B592" s="27"/>
+      <c r="B592" s="26"/>
     </row>
     <row r="593" ht="14.25" customHeight="1">
-      <c r="B593" s="27"/>
+      <c r="B593" s="26"/>
     </row>
     <row r="594" ht="14.25" customHeight="1">
-      <c r="B594" s="27"/>
+      <c r="B594" s="26"/>
     </row>
     <row r="595" ht="14.25" customHeight="1">
-      <c r="B595" s="27"/>
+      <c r="B595" s="26"/>
     </row>
     <row r="596" ht="14.25" customHeight="1">
-      <c r="B596" s="27"/>
+      <c r="B596" s="26"/>
     </row>
     <row r="597" ht="14.25" customHeight="1">
-      <c r="B597" s="27"/>
+      <c r="B597" s="26"/>
     </row>
     <row r="598" ht="14.25" customHeight="1">
-      <c r="B598" s="27"/>
+      <c r="B598" s="26"/>
     </row>
     <row r="599" ht="14.25" customHeight="1">
-      <c r="B599" s="27"/>
+      <c r="B599" s="26"/>
     </row>
     <row r="600" ht="14.25" customHeight="1">
-      <c r="B600" s="27"/>
+      <c r="B600" s="26"/>
     </row>
     <row r="601" ht="14.25" customHeight="1">
-      <c r="B601" s="27"/>
+      <c r="B601" s="26"/>
     </row>
     <row r="602" ht="14.25" customHeight="1">
-      <c r="B602" s="27"/>
+      <c r="B602" s="26"/>
     </row>
     <row r="603" ht="14.25" customHeight="1">
-      <c r="B603" s="27"/>
+      <c r="B603" s="26"/>
     </row>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="B604" s="27"/>
+      <c r="B604" s="26"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="B605" s="27"/>
+      <c r="B605" s="26"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
-      <c r="B606" s="27"/>
+      <c r="B606" s="26"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="B607" s="27"/>
+      <c r="B607" s="26"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="B608" s="27"/>
+      <c r="B608" s="26"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="B609" s="27"/>
+      <c r="B609" s="26"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="B610" s="27"/>
+      <c r="B610" s="26"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="B611" s="27"/>
+      <c r="B611" s="26"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
-      <c r="B612" s="27"/>
+      <c r="B612" s="26"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="B613" s="27"/>
+      <c r="B613" s="26"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="B614" s="27"/>
+      <c r="B614" s="26"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
-      <c r="B615" s="27"/>
+      <c r="B615" s="26"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="B616" s="27"/>
+      <c r="B616" s="26"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="B617" s="27"/>
+      <c r="B617" s="26"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="B618" s="27"/>
+      <c r="B618" s="26"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="B619" s="27"/>
+      <c r="B619" s="26"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="B620" s="27"/>
+      <c r="B620" s="26"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="B621" s="27"/>
+      <c r="B621" s="26"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
-      <c r="B622" s="27"/>
+      <c r="B622" s="26"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
-      <c r="B623" s="27"/>
+      <c r="B623" s="26"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
-      <c r="B624" s="27"/>
+      <c r="B624" s="26"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="B625" s="27"/>
+      <c r="B625" s="26"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="B626" s="27"/>
+      <c r="B626" s="26"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
-      <c r="B627" s="27"/>
+      <c r="B627" s="26"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
-      <c r="B628" s="27"/>
+      <c r="B628" s="26"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
-      <c r="B629" s="27"/>
+      <c r="B629" s="26"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
-      <c r="B630" s="27"/>
+      <c r="B630" s="26"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="B631" s="27"/>
+      <c r="B631" s="26"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="B632" s="27"/>
+      <c r="B632" s="26"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
-      <c r="B633" s="27"/>
+      <c r="B633" s="26"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
-      <c r="B634" s="27"/>
+      <c r="B634" s="26"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
-      <c r="B635" s="27"/>
+      <c r="B635" s="26"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
-      <c r="B636" s="27"/>
+      <c r="B636" s="26"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
-      <c r="B637" s="27"/>
+      <c r="B637" s="26"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
-      <c r="B638" s="27"/>
+      <c r="B638" s="26"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
-      <c r="B639" s="27"/>
+      <c r="B639" s="26"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
-      <c r="B640" s="27"/>
+      <c r="B640" s="26"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
-      <c r="B641" s="27"/>
+      <c r="B641" s="26"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
-      <c r="B642" s="27"/>
+      <c r="B642" s="26"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
-      <c r="B643" s="27"/>
+      <c r="B643" s="26"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
-      <c r="B644" s="27"/>
+      <c r="B644" s="26"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
-      <c r="B645" s="27"/>
+      <c r="B645" s="26"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
-      <c r="B646" s="27"/>
+      <c r="B646" s="26"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
-      <c r="B647" s="27"/>
+      <c r="B647" s="26"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
-      <c r="B648" s="27"/>
+      <c r="B648" s="26"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
-      <c r="B649" s="27"/>
+      <c r="B649" s="26"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
-      <c r="B650" s="27"/>
+      <c r="B650" s="26"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
-      <c r="B651" s="27"/>
+      <c r="B651" s="26"/>
     </row>
     <row r="652" ht="14.25" customHeight="1">
-      <c r="B652" s="27"/>
+      <c r="B652" s="26"/>
     </row>
     <row r="653" ht="14.25" customHeight="1">
-      <c r="B653" s="27"/>
+      <c r="B653" s="26"/>
     </row>
     <row r="654" ht="14.25" customHeight="1">
-      <c r="B654" s="27"/>
+      <c r="B654" s="26"/>
     </row>
     <row r="655" ht="14.25" customHeight="1">
-      <c r="B655" s="27"/>
+      <c r="B655" s="26"/>
     </row>
     <row r="656" ht="14.25" customHeight="1">
-      <c r="B656" s="27"/>
+      <c r="B656" s="26"/>
     </row>
     <row r="657" ht="14.25" customHeight="1">
-      <c r="B657" s="27"/>
+      <c r="B657" s="26"/>
     </row>
     <row r="658" ht="14.25" customHeight="1">
-      <c r="B658" s="27"/>
+      <c r="B658" s="26"/>
     </row>
     <row r="659" ht="14.25" customHeight="1">
-      <c r="B659" s="27"/>
+      <c r="B659" s="26"/>
     </row>
     <row r="660" ht="14.25" customHeight="1">
-      <c r="B660" s="27"/>
+      <c r="B660" s="26"/>
     </row>
     <row r="661" ht="14.25" customHeight="1">
-      <c r="B661" s="27"/>
+      <c r="B661" s="26"/>
     </row>
     <row r="662" ht="14.25" customHeight="1">
-      <c r="B662" s="27"/>
+      <c r="B662" s="26"/>
     </row>
     <row r="663" ht="14.25" customHeight="1">
-      <c r="B663" s="27"/>
+      <c r="B663" s="26"/>
     </row>
     <row r="664" ht="14.25" customHeight="1">
-      <c r="B664" s="27"/>
+      <c r="B664" s="26"/>
     </row>
     <row r="665" ht="14.25" customHeight="1">
-      <c r="B665" s="27"/>
+      <c r="B665" s="26"/>
     </row>
     <row r="666" ht="14.25" customHeight="1">
-      <c r="B666" s="27"/>
+      <c r="B666" s="26"/>
     </row>
     <row r="667" ht="14.25" customHeight="1">
-      <c r="B667" s="27"/>
+      <c r="B667" s="26"/>
     </row>
     <row r="668" ht="14.25" customHeight="1">
-      <c r="B668" s="27"/>
+      <c r="B668" s="26"/>
     </row>
     <row r="669" ht="14.25" customHeight="1">
-      <c r="B669" s="27"/>
+      <c r="B669" s="26"/>
     </row>
     <row r="670" ht="14.25" customHeight="1">
-      <c r="B670" s="27"/>
+      <c r="B670" s="26"/>
     </row>
     <row r="671" ht="14.25" customHeight="1">
-      <c r="B671" s="27"/>
+      <c r="B671" s="26"/>
     </row>
     <row r="672" ht="14.25" customHeight="1">
-      <c r="B672" s="27"/>
+      <c r="B672" s="26"/>
     </row>
     <row r="673" ht="14.25" customHeight="1">
-      <c r="B673" s="27"/>
+      <c r="B673" s="26"/>
     </row>
     <row r="674" ht="14.25" customHeight="1">
-      <c r="B674" s="27"/>
+      <c r="B674" s="26"/>
     </row>
     <row r="675" ht="14.25" customHeight="1">
-      <c r="B675" s="27"/>
+      <c r="B675" s="26"/>
     </row>
     <row r="676" ht="14.25" customHeight="1">
-      <c r="B676" s="27"/>
+      <c r="B676" s="26"/>
     </row>
     <row r="677" ht="14.25" customHeight="1">
-      <c r="B677" s="27"/>
+      <c r="B677" s="26"/>
     </row>
     <row r="678" ht="14.25" customHeight="1">
-      <c r="B678" s="27"/>
+      <c r="B678" s="26"/>
     </row>
     <row r="679" ht="14.25" customHeight="1">
-      <c r="B679" s="27"/>
+      <c r="B679" s="26"/>
     </row>
     <row r="680" ht="14.25" customHeight="1">
-      <c r="B680" s="27"/>
+      <c r="B680" s="26"/>
     </row>
     <row r="681" ht="14.25" customHeight="1">
-      <c r="B681" s="27"/>
+      <c r="B681" s="26"/>
     </row>
     <row r="682" ht="14.25" customHeight="1">
-      <c r="B682" s="27"/>
+      <c r="B682" s="26"/>
     </row>
     <row r="683" ht="14.25" customHeight="1">
-      <c r="B683" s="27"/>
+      <c r="B683" s="26"/>
     </row>
     <row r="684" ht="14.25" customHeight="1">
-      <c r="B684" s="27"/>
+      <c r="B684" s="26"/>
     </row>
     <row r="685" ht="14.25" customHeight="1">
-      <c r="B685" s="27"/>
+      <c r="B685" s="26"/>
     </row>
     <row r="686" ht="14.25" customHeight="1">
-      <c r="B686" s="27"/>
+      <c r="B686" s="26"/>
     </row>
     <row r="687" ht="14.25" customHeight="1">
-      <c r="B687" s="27"/>
+      <c r="B687" s="26"/>
     </row>
     <row r="688" ht="14.25" customHeight="1">
-      <c r="B688" s="27"/>
+      <c r="B688" s="26"/>
     </row>
     <row r="689" ht="14.25" customHeight="1">
-      <c r="B689" s="27"/>
+      <c r="B689" s="26"/>
     </row>
     <row r="690" ht="14.25" customHeight="1">
-      <c r="B690" s="27"/>
+      <c r="B690" s="26"/>
     </row>
     <row r="691" ht="14.25" customHeight="1">
-      <c r="B691" s="27"/>
+      <c r="B691" s="26"/>
     </row>
     <row r="692" ht="14.25" customHeight="1">
-      <c r="B692" s="27"/>
+      <c r="B692" s="26"/>
     </row>
     <row r="693" ht="14.25" customHeight="1">
-      <c r="B693" s="27"/>
+      <c r="B693" s="26"/>
     </row>
     <row r="694" ht="14.25" customHeight="1">
-      <c r="B694" s="27"/>
+      <c r="B694" s="26"/>
     </row>
     <row r="695" ht="14.25" customHeight="1">
-      <c r="B695" s="27"/>
+      <c r="B695" s="26"/>
     </row>
     <row r="696" ht="14.25" customHeight="1">
-      <c r="B696" s="27"/>
+      <c r="B696" s="26"/>
     </row>
     <row r="697" ht="14.25" customHeight="1">
-      <c r="B697" s="27"/>
+      <c r="B697" s="26"/>
     </row>
     <row r="698" ht="14.25" customHeight="1">
-      <c r="B698" s="27"/>
+      <c r="B698" s="26"/>
     </row>
     <row r="699" ht="14.25" customHeight="1">
-      <c r="B699" s="27"/>
+      <c r="B699" s="26"/>
     </row>
     <row r="700" ht="14.25" customHeight="1">
-      <c r="B700" s="27"/>
+      <c r="B700" s="26"/>
     </row>
     <row r="701" ht="14.25" customHeight="1">
-      <c r="B701" s="27"/>
+      <c r="B701" s="26"/>
     </row>
     <row r="702" ht="14.25" customHeight="1">
-      <c r="B702" s="27"/>
+      <c r="B702" s="26"/>
     </row>
     <row r="703" ht="14.25" customHeight="1">
-      <c r="B703" s="27"/>
+      <c r="B703" s="26"/>
     </row>
     <row r="704" ht="14.25" customHeight="1">
-      <c r="B704" s="27"/>
+      <c r="B704" s="26"/>
     </row>
     <row r="705" ht="14.25" customHeight="1">
-      <c r="B705" s="27"/>
+      <c r="B705" s="26"/>
     </row>
     <row r="706" ht="14.25" customHeight="1">
-      <c r="B706" s="27"/>
+      <c r="B706" s="26"/>
     </row>
     <row r="707" ht="14.25" customHeight="1">
-      <c r="B707" s="27"/>
+      <c r="B707" s="26"/>
     </row>
     <row r="708" ht="14.25" customHeight="1">
-      <c r="B708" s="27"/>
+      <c r="B708" s="26"/>
     </row>
     <row r="709" ht="14.25" customHeight="1">
-      <c r="B709" s="27"/>
+      <c r="B709" s="26"/>
     </row>
     <row r="710" ht="14.25" customHeight="1">
-      <c r="B710" s="27"/>
+      <c r="B710" s="26"/>
     </row>
     <row r="711" ht="14.25" customHeight="1">
-      <c r="B711" s="27"/>
+      <c r="B711" s="26"/>
     </row>
     <row r="712" ht="14.25" customHeight="1">
-      <c r="B712" s="27"/>
+      <c r="B712" s="26"/>
     </row>
     <row r="713" ht="14.25" customHeight="1">
-      <c r="B713" s="27"/>
+      <c r="B713" s="26"/>
     </row>
     <row r="714" ht="14.25" customHeight="1">
-      <c r="B714" s="27"/>
+      <c r="B714" s="26"/>
     </row>
     <row r="715" ht="14.25" customHeight="1">
-      <c r="B715" s="27"/>
+      <c r="B715" s="26"/>
     </row>
     <row r="716" ht="14.25" customHeight="1">
-      <c r="B716" s="27"/>
+      <c r="B716" s="26"/>
     </row>
     <row r="717" ht="14.25" customHeight="1">
-      <c r="B717" s="27"/>
+      <c r="B717" s="26"/>
     </row>
     <row r="718" ht="14.25" customHeight="1">
-      <c r="B718" s="27"/>
+      <c r="B718" s="26"/>
     </row>
     <row r="719" ht="14.25" customHeight="1">
-      <c r="B719" s="27"/>
+      <c r="B719" s="26"/>
     </row>
     <row r="720" ht="14.25" customHeight="1">
-      <c r="B720" s="27"/>
+      <c r="B720" s="26"/>
     </row>
     <row r="721" ht="14.25" customHeight="1">
-      <c r="B721" s="27"/>
+      <c r="B721" s="26"/>
     </row>
     <row r="722" ht="14.25" customHeight="1">
-      <c r="B722" s="27"/>
+      <c r="B722" s="26"/>
     </row>
     <row r="723" ht="14.25" customHeight="1">
-      <c r="B723" s="27"/>
+      <c r="B723" s="26"/>
     </row>
     <row r="724" ht="14.25" customHeight="1">
-      <c r="B724" s="27"/>
+      <c r="B724" s="26"/>
     </row>
     <row r="725" ht="14.25" customHeight="1">
-      <c r="B725" s="27"/>
+      <c r="B725" s="26"/>
     </row>
     <row r="726" ht="14.25" customHeight="1">
-      <c r="B726" s="27"/>
+      <c r="B726" s="26"/>
     </row>
     <row r="727" ht="14.25" customHeight="1">
-      <c r="B727" s="27"/>
+      <c r="B727" s="26"/>
     </row>
     <row r="728" ht="14.25" customHeight="1">
-      <c r="B728" s="27"/>
+      <c r="B728" s="26"/>
     </row>
     <row r="729" ht="14.25" customHeight="1">
-      <c r="B729" s="27"/>
+      <c r="B729" s="26"/>
     </row>
     <row r="730" ht="14.25" customHeight="1">
-      <c r="B730" s="27"/>
+      <c r="B730" s="26"/>
     </row>
     <row r="731" ht="14.25" customHeight="1">
-      <c r="B731" s="27"/>
+      <c r="B731" s="26"/>
     </row>
     <row r="732" ht="14.25" customHeight="1">
-      <c r="B732" s="27"/>
+      <c r="B732" s="26"/>
     </row>
     <row r="733" ht="14.25" customHeight="1">
-      <c r="B733" s="27"/>
+      <c r="B733" s="26"/>
     </row>
     <row r="734" ht="14.25" customHeight="1">
-      <c r="B734" s="27"/>
+      <c r="B734" s="26"/>
     </row>
     <row r="735" ht="14.25" customHeight="1">
-      <c r="B735" s="27"/>
+      <c r="B735" s="26"/>
     </row>
     <row r="736" ht="14.25" customHeight="1">
-      <c r="B736" s="27"/>
+      <c r="B736" s="26"/>
     </row>
     <row r="737" ht="14.25" customHeight="1">
-      <c r="B737" s="27"/>
+      <c r="B737" s="26"/>
     </row>
     <row r="738" ht="14.25" customHeight="1">
-      <c r="B738" s="27"/>
+      <c r="B738" s="26"/>
     </row>
     <row r="739" ht="14.25" customHeight="1">
-      <c r="B739" s="27"/>
+      <c r="B739" s="26"/>
     </row>
     <row r="740" ht="14.25" customHeight="1">
-      <c r="B740" s="27"/>
+      <c r="B740" s="26"/>
     </row>
     <row r="741" ht="14.25" customHeight="1">
-      <c r="B741" s="27"/>
+      <c r="B741" s="26"/>
     </row>
     <row r="742" ht="14.25" customHeight="1">
-      <c r="B742" s="27"/>
+      <c r="B742" s="26"/>
     </row>
     <row r="743" ht="14.25" customHeight="1">
-      <c r="B743" s="27"/>
+      <c r="B743" s="26"/>
     </row>
     <row r="744" ht="14.25" customHeight="1">
-      <c r="B744" s="27"/>
+      <c r="B744" s="26"/>
     </row>
     <row r="745" ht="14.25" customHeight="1">
-      <c r="B745" s="27"/>
+      <c r="B745" s="26"/>
     </row>
     <row r="746" ht="14.25" customHeight="1">
-      <c r="B746" s="27"/>
+      <c r="B746" s="26"/>
     </row>
     <row r="747" ht="14.25" customHeight="1">
-      <c r="B747" s="27"/>
+      <c r="B747" s="26"/>
     </row>
     <row r="748" ht="14.25" customHeight="1">
-      <c r="B748" s="27"/>
+      <c r="B748" s="26"/>
     </row>
     <row r="749" ht="14.25" customHeight="1">
-      <c r="B749" s="27"/>
+      <c r="B749" s="26"/>
     </row>
     <row r="750" ht="14.25" customHeight="1">
-      <c r="B750" s="27"/>
+      <c r="B750" s="26"/>
     </row>
     <row r="751" ht="14.25" customHeight="1">
-      <c r="B751" s="27"/>
+      <c r="B751" s="26"/>
     </row>
     <row r="752" ht="14.25" customHeight="1">
-      <c r="B752" s="27"/>
+      <c r="B752" s="26"/>
     </row>
     <row r="753" ht="14.25" customHeight="1">
-      <c r="B753" s="27"/>
+      <c r="B753" s="26"/>
     </row>
     <row r="754" ht="14.25" customHeight="1">
-      <c r="B754" s="27"/>
+      <c r="B754" s="26"/>
     </row>
     <row r="755" ht="14.25" customHeight="1">
-      <c r="B755" s="27"/>
+      <c r="B755" s="26"/>
     </row>
     <row r="756" ht="14.25" customHeight="1">
-      <c r="B756" s="27"/>
+      <c r="B756" s="26"/>
     </row>
     <row r="757" ht="14.25" customHeight="1">
-      <c r="B757" s="27"/>
+      <c r="B757" s="26"/>
     </row>
     <row r="758" ht="14.25" customHeight="1">
-      <c r="B758" s="27"/>
+      <c r="B758" s="26"/>
     </row>
     <row r="759" ht="14.25" customHeight="1">
-      <c r="B759" s="27"/>
+      <c r="B759" s="26"/>
     </row>
     <row r="760" ht="14.25" customHeight="1">
-      <c r="B760" s="27"/>
+      <c r="B760" s="26"/>
     </row>
     <row r="761" ht="14.25" customHeight="1">
-      <c r="B761" s="27"/>
+      <c r="B761" s="26"/>
     </row>
     <row r="762" ht="14.25" customHeight="1">
-      <c r="B762" s="27"/>
+      <c r="B762" s="26"/>
     </row>
     <row r="763" ht="14.25" customHeight="1">
-      <c r="B763" s="27"/>
+      <c r="B763" s="26"/>
     </row>
     <row r="764" ht="14.25" customHeight="1">
-      <c r="B764" s="27"/>
+      <c r="B764" s="26"/>
     </row>
     <row r="765" ht="14.25" customHeight="1">
-      <c r="B765" s="27"/>
+      <c r="B765" s="26"/>
     </row>
     <row r="766" ht="14.25" customHeight="1">
-      <c r="B766" s="27"/>
+      <c r="B766" s="26"/>
     </row>
     <row r="767" ht="14.25" customHeight="1">
-      <c r="B767" s="27"/>
+      <c r="B767" s="26"/>
     </row>
     <row r="768" ht="14.25" customHeight="1">
-      <c r="B768" s="27"/>
+      <c r="B768" s="26"/>
     </row>
     <row r="769" ht="14.25" customHeight="1">
-      <c r="B769" s="27"/>
+      <c r="B769" s="26"/>
     </row>
     <row r="770" ht="14.25" customHeight="1">
-      <c r="B770" s="27"/>
+      <c r="B770" s="26"/>
     </row>
     <row r="771" ht="14.25" customHeight="1">
-      <c r="B771" s="27"/>
+      <c r="B771" s="26"/>
     </row>
     <row r="772" ht="14.25" customHeight="1">
-      <c r="B772" s="27"/>
+      <c r="B772" s="26"/>
     </row>
     <row r="773" ht="14.25" customHeight="1">
-      <c r="B773" s="27"/>
+      <c r="B773" s="26"/>
     </row>
     <row r="774" ht="14.25" customHeight="1">
-      <c r="B774" s="27"/>
+      <c r="B774" s="26"/>
     </row>
     <row r="775" ht="14.25" customHeight="1">
-      <c r="B775" s="27"/>
+      <c r="B775" s="26"/>
     </row>
     <row r="776" ht="14.25" customHeight="1">
-      <c r="B776" s="27"/>
+      <c r="B776" s="26"/>
     </row>
     <row r="777" ht="14.25" customHeight="1">
-      <c r="B777" s="27"/>
+      <c r="B777" s="26"/>
     </row>
     <row r="778" ht="14.25" customHeight="1">
-      <c r="B778" s="27"/>
+      <c r="B778" s="26"/>
     </row>
     <row r="779" ht="14.25" customHeight="1">
-      <c r="B779" s="27"/>
+      <c r="B779" s="26"/>
     </row>
     <row r="780" ht="14.25" customHeight="1">
-      <c r="B780" s="27"/>
+      <c r="B780" s="26"/>
     </row>
     <row r="781" ht="14.25" customHeight="1">
-      <c r="B781" s="27"/>
+      <c r="B781" s="26"/>
     </row>
     <row r="782" ht="14.25" customHeight="1">
-      <c r="B782" s="27"/>
+      <c r="B782" s="26"/>
     </row>
     <row r="783" ht="14.25" customHeight="1">
-      <c r="B783" s="27"/>
+      <c r="B783" s="26"/>
     </row>
     <row r="784" ht="14.25" customHeight="1">
-      <c r="B784" s="27"/>
+      <c r="B784" s="26"/>
     </row>
     <row r="785" ht="14.25" customHeight="1">
-      <c r="B785" s="27"/>
+      <c r="B785" s="26"/>
     </row>
     <row r="786" ht="14.25" customHeight="1">
-      <c r="B786" s="27"/>
+      <c r="B786" s="26"/>
     </row>
     <row r="787" ht="14.25" customHeight="1">
-      <c r="B787" s="27"/>
+      <c r="B787" s="26"/>
     </row>
     <row r="788" ht="14.25" customHeight="1">
-      <c r="B788" s="27"/>
+      <c r="B788" s="26"/>
     </row>
     <row r="789" ht="14.25" customHeight="1">
-      <c r="B789" s="27"/>
+      <c r="B789" s="26"/>
     </row>
     <row r="790" ht="14.25" customHeight="1">
-      <c r="B790" s="27"/>
+      <c r="B790" s="26"/>
     </row>
     <row r="791" ht="14.25" customHeight="1">
-      <c r="B791" s="27"/>
+      <c r="B791" s="26"/>
     </row>
     <row r="792" ht="14.25" customHeight="1">
-      <c r="B792" s="27"/>
+      <c r="B792" s="26"/>
     </row>
     <row r="793" ht="14.25" customHeight="1">
-      <c r="B793" s="27"/>
+      <c r="B793" s="26"/>
     </row>
     <row r="794" ht="14.25" customHeight="1">
-      <c r="B794" s="27"/>
+      <c r="B794" s="26"/>
     </row>
     <row r="795" ht="14.25" customHeight="1">
-      <c r="B795" s="27"/>
+      <c r="B795" s="26"/>
     </row>
     <row r="796" ht="14.25" customHeight="1">
-      <c r="B796" s="27"/>
+      <c r="B796" s="26"/>
     </row>
     <row r="797" ht="14.25" customHeight="1">
-      <c r="B797" s="27"/>
+      <c r="B797" s="26"/>
     </row>
     <row r="798" ht="14.25" customHeight="1">
-      <c r="B798" s="27"/>
+      <c r="B798" s="26"/>
     </row>
     <row r="799" ht="14.25" customHeight="1">
-      <c r="B799" s="27"/>
+      <c r="B799" s="26"/>
     </row>
     <row r="800" ht="14.25" customHeight="1">
-      <c r="B800" s="27"/>
+      <c r="B800" s="26"/>
     </row>
     <row r="801" ht="14.25" customHeight="1">
-      <c r="B801" s="27"/>
+      <c r="B801" s="26"/>
     </row>
     <row r="802" ht="14.25" customHeight="1">
-      <c r="B802" s="27"/>
+      <c r="B802" s="26"/>
     </row>
     <row r="803" ht="14.25" customHeight="1">
-      <c r="B803" s="27"/>
+      <c r="B803" s="26"/>
     </row>
     <row r="804" ht="14.25" customHeight="1">
-      <c r="B804" s="27"/>
+      <c r="B804" s="26"/>
     </row>
     <row r="805" ht="14.25" customHeight="1">
-      <c r="B805" s="27"/>
+      <c r="B805" s="26"/>
     </row>
     <row r="806" ht="14.25" customHeight="1">
-      <c r="B806" s="27"/>
+      <c r="B806" s="26"/>
     </row>
     <row r="807" ht="14.25" customHeight="1">
-      <c r="B807" s="27"/>
+      <c r="B807" s="26"/>
     </row>
     <row r="808" ht="14.25" customHeight="1">
-      <c r="B808" s="27"/>
+      <c r="B808" s="26"/>
     </row>
     <row r="809" ht="14.25" customHeight="1">
-      <c r="B809" s="27"/>
+      <c r="B809" s="26"/>
     </row>
     <row r="810" ht="14.25" customHeight="1">
-      <c r="B810" s="27"/>
+      <c r="B810" s="26"/>
     </row>
     <row r="811" ht="14.25" customHeight="1">
-      <c r="B811" s="27"/>
+      <c r="B811" s="26"/>
     </row>
     <row r="812" ht="14.25" customHeight="1">
-      <c r="B812" s="27"/>
+      <c r="B812" s="26"/>
     </row>
     <row r="813" ht="14.25" customHeight="1">
-      <c r="B813" s="27"/>
+      <c r="B813" s="26"/>
     </row>
     <row r="814" ht="14.25" customHeight="1">
-      <c r="B814" s="27"/>
+      <c r="B814" s="26"/>
     </row>
     <row r="815" ht="14.25" customHeight="1">
-      <c r="B815" s="27"/>
+      <c r="B815" s="26"/>
     </row>
     <row r="816" ht="14.25" customHeight="1">
-      <c r="B816" s="27"/>
+      <c r="B816" s="26"/>
     </row>
     <row r="817" ht="14.25" customHeight="1">
-      <c r="B817" s="27"/>
+      <c r="B817" s="26"/>
     </row>
     <row r="818" ht="14.25" customHeight="1">
-      <c r="B818" s="27"/>
+      <c r="B818" s="26"/>
     </row>
     <row r="819" ht="14.25" customHeight="1">
-      <c r="B819" s="27"/>
+      <c r="B819" s="26"/>
     </row>
     <row r="820" ht="14.25" customHeight="1">
-      <c r="B820" s="27"/>
+      <c r="B820" s="26"/>
     </row>
     <row r="821" ht="14.25" customHeight="1">
-      <c r="B821" s="27"/>
+      <c r="B821" s="26"/>
     </row>
     <row r="822" ht="14.25" customHeight="1">
-      <c r="B822" s="27"/>
+      <c r="B822" s="26"/>
     </row>
     <row r="823" ht="14.25" customHeight="1">
-      <c r="B823" s="27"/>
+      <c r="B823" s="26"/>
     </row>
     <row r="824" ht="14.25" customHeight="1">
-      <c r="B824" s="27"/>
+      <c r="B824" s="26"/>
     </row>
     <row r="825" ht="14.25" customHeight="1">
-      <c r="B825" s="27"/>
+      <c r="B825" s="26"/>
     </row>
     <row r="826" ht="14.25" customHeight="1">
-      <c r="B826" s="27"/>
+      <c r="B826" s="26"/>
     </row>
     <row r="827" ht="14.25" customHeight="1">
-      <c r="B827" s="27"/>
+      <c r="B827" s="26"/>
     </row>
     <row r="828" ht="14.25" customHeight="1">
-      <c r="B828" s="27"/>
+      <c r="B828" s="26"/>
     </row>
     <row r="829" ht="14.25" customHeight="1">
-      <c r="B829" s="27"/>
+      <c r="B829" s="26"/>
     </row>
     <row r="830" ht="14.25" customHeight="1">
-      <c r="B830" s="27"/>
+      <c r="B830" s="26"/>
     </row>
     <row r="831" ht="14.25" customHeight="1">
-      <c r="B831" s="27"/>
+      <c r="B831" s="26"/>
     </row>
     <row r="832" ht="14.25" customHeight="1">
-      <c r="B832" s="27"/>
+      <c r="B832" s="26"/>
     </row>
     <row r="833" ht="14.25" customHeight="1">
-      <c r="B833" s="27"/>
+      <c r="B833" s="26"/>
     </row>
     <row r="834" ht="14.25" customHeight="1">
-      <c r="B834" s="27"/>
+      <c r="B834" s="26"/>
     </row>
     <row r="835" ht="14.25" customHeight="1">
-      <c r="B835" s="27"/>
+      <c r="B835" s="26"/>
     </row>
     <row r="836" ht="14.25" customHeight="1">
-      <c r="B836" s="27"/>
+      <c r="B836" s="26"/>
     </row>
     <row r="837" ht="14.25" customHeight="1">
-      <c r="B837" s="27"/>
+      <c r="B837" s="26"/>
     </row>
     <row r="838" ht="14.25" customHeight="1">
-      <c r="B838" s="27"/>
+      <c r="B838" s="26"/>
     </row>
     <row r="839" ht="14.25" customHeight="1">
-      <c r="B839" s="27"/>
+      <c r="B839" s="26"/>
     </row>
     <row r="840" ht="14.25" customHeight="1">
-      <c r="B840" s="27"/>
+      <c r="B840" s="26"/>
     </row>
     <row r="841" ht="14.25" customHeight="1">
-      <c r="B841" s="27"/>
+      <c r="B841" s="26"/>
     </row>
     <row r="842" ht="14.25" customHeight="1">
-      <c r="B842" s="27"/>
+      <c r="B842" s="26"/>
     </row>
     <row r="843" ht="14.25" customHeight="1">
-      <c r="B843" s="27"/>
+      <c r="B843" s="26"/>
     </row>
     <row r="844" ht="14.25" customHeight="1">
-      <c r="B844" s="27"/>
+      <c r="B844" s="26"/>
     </row>
     <row r="845" ht="14.25" customHeight="1">
-      <c r="B845" s="27"/>
+      <c r="B845" s="26"/>
     </row>
     <row r="846" ht="14.25" customHeight="1">
-      <c r="B846" s="27"/>
+      <c r="B846" s="26"/>
     </row>
     <row r="847" ht="14.25" customHeight="1">
-      <c r="B847" s="27"/>
+      <c r="B847" s="26"/>
     </row>
     <row r="848" ht="14.25" customHeight="1">
-      <c r="B848" s="27"/>
+      <c r="B848" s="26"/>
     </row>
     <row r="849" ht="14.25" customHeight="1">
-      <c r="B849" s="27"/>
+      <c r="B849" s="26"/>
     </row>
     <row r="850" ht="14.25" customHeight="1">
-      <c r="B850" s="27"/>
+      <c r="B850" s="26"/>
     </row>
     <row r="851" ht="14.25" customHeight="1">
-      <c r="B851" s="27"/>
+      <c r="B851" s="26"/>
     </row>
     <row r="852" ht="14.25" customHeight="1">
-      <c r="B852" s="27"/>
+      <c r="B852" s="26"/>
     </row>
     <row r="853" ht="14.25" customHeight="1">
-      <c r="B853" s="27"/>
+      <c r="B853" s="26"/>
     </row>
     <row r="854" ht="14.25" customHeight="1">
-      <c r="B854" s="27"/>
+      <c r="B854" s="26"/>
     </row>
     <row r="855" ht="14.25" customHeight="1">
-      <c r="B855" s="27"/>
+      <c r="B855" s="26"/>
     </row>
     <row r="856" ht="14.25" customHeight="1">
-      <c r="B856" s="27"/>
+      <c r="B856" s="26"/>
     </row>
     <row r="857" ht="14.25" customHeight="1">
-      <c r="B857" s="27"/>
+      <c r="B857" s="26"/>
     </row>
     <row r="858" ht="14.25" customHeight="1">
-      <c r="B858" s="27"/>
+      <c r="B858" s="26"/>
     </row>
     <row r="859" ht="14.25" customHeight="1">
-      <c r="B859" s="27"/>
+      <c r="B859" s="26"/>
     </row>
     <row r="860" ht="14.25" customHeight="1">
-      <c r="B860" s="27"/>
+      <c r="B860" s="26"/>
     </row>
     <row r="861" ht="14.25" customHeight="1">
-      <c r="B861" s="27"/>
+      <c r="B861" s="26"/>
     </row>
     <row r="862" ht="14.25" customHeight="1">
-      <c r="B862" s="27"/>
+      <c r="B862" s="26"/>
     </row>
     <row r="863" ht="14.25" customHeight="1">
-      <c r="B863" s="27"/>
+      <c r="B863" s="26"/>
     </row>
     <row r="864" ht="14.25" customHeight="1">
-      <c r="B864" s="27"/>
+      <c r="B864" s="26"/>
     </row>
     <row r="865" ht="14.25" customHeight="1">
-      <c r="B865" s="27"/>
+      <c r="B865" s="26"/>
     </row>
     <row r="866" ht="14.25" customHeight="1">
-      <c r="B866" s="27"/>
+      <c r="B866" s="26"/>
     </row>
     <row r="867" ht="14.25" customHeight="1">
-      <c r="B867" s="27"/>
+      <c r="B867" s="26"/>
     </row>
     <row r="868" ht="14.25" customHeight="1">
-      <c r="B868" s="27"/>
+      <c r="B868" s="26"/>
     </row>
     <row r="869" ht="14.25" customHeight="1">
-      <c r="B869" s="27"/>
+      <c r="B869" s="26"/>
     </row>
     <row r="870" ht="14.25" customHeight="1">
-      <c r="B870" s="27"/>
+      <c r="B870" s="26"/>
     </row>
     <row r="871" ht="14.25" customHeight="1">
-      <c r="B871" s="27"/>
+      <c r="B871" s="26"/>
     </row>
     <row r="872" ht="14.25" customHeight="1">
-      <c r="B872" s="27"/>
+      <c r="B872" s="26"/>
     </row>
     <row r="873" ht="14.25" customHeight="1">
-      <c r="B873" s="27"/>
+      <c r="B873" s="26"/>
     </row>
     <row r="874" ht="14.25" customHeight="1">
-      <c r="B874" s="27"/>
+      <c r="B874" s="26"/>
     </row>
     <row r="875" ht="14.25" customHeight="1">
-      <c r="B875" s="27"/>
+      <c r="B875" s="26"/>
     </row>
     <row r="876" ht="14.25" customHeight="1">
-      <c r="B876" s="27"/>
+      <c r="B876" s="26"/>
     </row>
     <row r="877" ht="14.25" customHeight="1">
-      <c r="B877" s="27"/>
+      <c r="B877" s="26"/>
     </row>
     <row r="878" ht="14.25" customHeight="1">
-      <c r="B878" s="27"/>
+      <c r="B878" s="26"/>
     </row>
     <row r="879" ht="14.25" customHeight="1">
-      <c r="B879" s="27"/>
+      <c r="B879" s="26"/>
     </row>
     <row r="880" ht="14.25" customHeight="1">
-      <c r="B880" s="27"/>
+      <c r="B880" s="26"/>
     </row>
     <row r="881" ht="14.25" customHeight="1">
-      <c r="B881" s="27"/>
+      <c r="B881" s="26"/>
     </row>
     <row r="882" ht="14.25" customHeight="1">
-      <c r="B882" s="27"/>
+      <c r="B882" s="26"/>
     </row>
     <row r="883" ht="14.25" customHeight="1">
-      <c r="B883" s="27"/>
+      <c r="B883" s="26"/>
     </row>
     <row r="884" ht="14.25" customHeight="1">
-      <c r="B884" s="27"/>
+      <c r="B884" s="26"/>
     </row>
     <row r="885" ht="14.25" customHeight="1">
-      <c r="B885" s="27"/>
+      <c r="B885" s="26"/>
     </row>
     <row r="886" ht="14.25" customHeight="1">
-      <c r="B886" s="27"/>
+      <c r="B886" s="26"/>
     </row>
     <row r="887" ht="14.25" customHeight="1">
-      <c r="B887" s="27"/>
+      <c r="B887" s="26"/>
     </row>
     <row r="888" ht="14.25" customHeight="1">
-      <c r="B888" s="27"/>
+      <c r="B888" s="26"/>
     </row>
     <row r="889" ht="14.25" customHeight="1">
-      <c r="B889" s="27"/>
+      <c r="B889" s="26"/>
     </row>
     <row r="890" ht="14.25" customHeight="1">
-      <c r="B890" s="27"/>
+      <c r="B890" s="26"/>
     </row>
     <row r="891" ht="14.25" customHeight="1">
-      <c r="B891" s="27"/>
+      <c r="B891" s="26"/>
     </row>
     <row r="892" ht="14.25" customHeight="1">
-      <c r="B892" s="27"/>
+      <c r="B892" s="26"/>
     </row>
     <row r="893" ht="14.25" customHeight="1">
-      <c r="B893" s="27"/>
+      <c r="B893" s="26"/>
     </row>
     <row r="894" ht="14.25" customHeight="1">
-      <c r="B894" s="27"/>
+      <c r="B894" s="26"/>
     </row>
     <row r="895" ht="14.25" customHeight="1">
-      <c r="B895" s="27"/>
+      <c r="B895" s="26"/>
     </row>
     <row r="896" ht="14.25" customHeight="1">
-      <c r="B896" s="27"/>
+      <c r="B896" s="26"/>
     </row>
     <row r="897" ht="14.25" customHeight="1">
-      <c r="B897" s="27"/>
+      <c r="B897" s="26"/>
     </row>
     <row r="898" ht="14.25" customHeight="1">
-      <c r="B898" s="27"/>
+      <c r="B898" s="26"/>
     </row>
     <row r="899" ht="14.25" customHeight="1">
-      <c r="B899" s="27"/>
+      <c r="B899" s="26"/>
     </row>
     <row r="900" ht="14.25" customHeight="1">
-      <c r="B900" s="27"/>
+      <c r="B900" s="26"/>
     </row>
     <row r="901" ht="14.25" customHeight="1">
-      <c r="B901" s="27"/>
+      <c r="B901" s="26"/>
     </row>
     <row r="902" ht="14.25" customHeight="1">
-      <c r="B902" s="27"/>
+      <c r="B902" s="26"/>
     </row>
     <row r="903" ht="14.25" customHeight="1">
-      <c r="B903" s="27"/>
+      <c r="B903" s="26"/>
     </row>
     <row r="904" ht="14.25" customHeight="1">
-      <c r="B904" s="27"/>
+      <c r="B904" s="26"/>
     </row>
     <row r="905" ht="14.25" customHeight="1">
-      <c r="B905" s="27"/>
+      <c r="B905" s="26"/>
     </row>
     <row r="906" ht="14.25" customHeight="1">
-      <c r="B906" s="27"/>
+      <c r="B906" s="26"/>
     </row>
     <row r="907" ht="14.25" customHeight="1">
-      <c r="B907" s="27"/>
+      <c r="B907" s="26"/>
     </row>
     <row r="908" ht="14.25" customHeight="1">
-      <c r="B908" s="27"/>
+      <c r="B908" s="26"/>
     </row>
     <row r="909" ht="14.25" customHeight="1">
-      <c r="B909" s="27"/>
+      <c r="B909" s="26"/>
     </row>
     <row r="910" ht="14.25" customHeight="1">
-      <c r="B910" s="27"/>
+      <c r="B910" s="26"/>
     </row>
     <row r="911" ht="14.25" customHeight="1">
-      <c r="B911" s="27"/>
+      <c r="B911" s="26"/>
     </row>
     <row r="912" ht="14.25" customHeight="1">
-      <c r="B912" s="27"/>
+      <c r="B912" s="26"/>
     </row>
     <row r="913" ht="14.25" customHeight="1">
-      <c r="B913" s="27"/>
+      <c r="B913" s="26"/>
     </row>
     <row r="914" ht="14.25" customHeight="1">
-      <c r="B914" s="27"/>
+      <c r="B914" s="26"/>
     </row>
     <row r="915" ht="14.25" customHeight="1">
-      <c r="B915" s="27"/>
+      <c r="B915" s="26"/>
     </row>
     <row r="916" ht="14.25" customHeight="1">
-      <c r="B916" s="27"/>
+      <c r="B916" s="26"/>
     </row>
     <row r="917" ht="14.25" customHeight="1">
-      <c r="B917" s="27"/>
+      <c r="B917" s="26"/>
     </row>
     <row r="918" ht="14.25" customHeight="1">
-      <c r="B918" s="27"/>
+      <c r="B918" s="26"/>
     </row>
     <row r="919" ht="14.25" customHeight="1">
-      <c r="B919" s="27"/>
+      <c r="B919" s="26"/>
     </row>
     <row r="920" ht="14.25" customHeight="1">
-      <c r="B920" s="27"/>
+      <c r="B920" s="26"/>
     </row>
     <row r="921" ht="14.25" customHeight="1">
-      <c r="B921" s="27"/>
+      <c r="B921" s="26"/>
     </row>
     <row r="922" ht="14.25" customHeight="1">
-      <c r="B922" s="27"/>
+      <c r="B922" s="26"/>
     </row>
     <row r="923" ht="14.25" customHeight="1">
-      <c r="B923" s="27"/>
+      <c r="B923" s="26"/>
     </row>
     <row r="924" ht="14.25" customHeight="1">
-      <c r="B924" s="27"/>
+      <c r="B924" s="26"/>
     </row>
     <row r="925" ht="14.25" customHeight="1">
-      <c r="B925" s="27"/>
+      <c r="B925" s="26"/>
     </row>
     <row r="926" ht="14.25" customHeight="1">
-      <c r="B926" s="27"/>
+      <c r="B926" s="26"/>
     </row>
     <row r="927" ht="14.25" customHeight="1">
-      <c r="B927" s="27"/>
+      <c r="B927" s="26"/>
     </row>
     <row r="928" ht="14.25" customHeight="1">
-      <c r="B928" s="27"/>
+      <c r="B928" s="26"/>
     </row>
     <row r="929" ht="14.25" customHeight="1">
-      <c r="B929" s="27"/>
+      <c r="B929" s="26"/>
     </row>
     <row r="930" ht="14.25" customHeight="1">
-      <c r="B930" s="27"/>
+      <c r="B930" s="26"/>
     </row>
     <row r="931" ht="14.25" customHeight="1">
-      <c r="B931" s="27"/>
+      <c r="B931" s="26"/>
     </row>
     <row r="932" ht="14.25" customHeight="1">
-      <c r="B932" s="27"/>
+      <c r="B932" s="26"/>
     </row>
     <row r="933" ht="14.25" customHeight="1">
-      <c r="B933" s="27"/>
+      <c r="B933" s="26"/>
     </row>
     <row r="934" ht="14.25" customHeight="1">
-      <c r="B934" s="27"/>
+      <c r="B934" s="26"/>
     </row>
     <row r="935" ht="14.25" customHeight="1">
-      <c r="B935" s="27"/>
+      <c r="B935" s="26"/>
     </row>
     <row r="936" ht="14.25" customHeight="1">
-      <c r="B936" s="27"/>
+      <c r="B936" s="26"/>
     </row>
     <row r="937" ht="14.25" customHeight="1">
-      <c r="B937" s="27"/>
+      <c r="B937" s="26"/>
     </row>
     <row r="938" ht="14.25" customHeight="1">
-      <c r="B938" s="27"/>
+      <c r="B938" s="26"/>
     </row>
     <row r="939" ht="14.25" customHeight="1">
-      <c r="B939" s="27"/>
+      <c r="B939" s="26"/>
     </row>
     <row r="940" ht="14.25" customHeight="1">
-      <c r="B940" s="27"/>
+      <c r="B940" s="26"/>
     </row>
     <row r="941" ht="14.25" customHeight="1">
-      <c r="B941" s="27"/>
+      <c r="B941" s="26"/>
     </row>
     <row r="942" ht="14.25" customHeight="1">
-      <c r="B942" s="27"/>
+      <c r="B942" s="26"/>
     </row>
     <row r="943" ht="14.25" customHeight="1">
-      <c r="B943" s="27"/>
+      <c r="B943" s="26"/>
     </row>
     <row r="944" ht="14.25" customHeight="1">
-      <c r="B944" s="27"/>
+      <c r="B944" s="26"/>
     </row>
     <row r="945" ht="14.25" customHeight="1">
-      <c r="B945" s="27"/>
+      <c r="B945" s="26"/>
     </row>
     <row r="946" ht="14.25" customHeight="1">
-      <c r="B946" s="27"/>
+      <c r="B946" s="26"/>
     </row>
     <row r="947" ht="14.25" customHeight="1">
-      <c r="B947" s="27"/>
+      <c r="B947" s="26"/>
     </row>
     <row r="948" ht="14.25" customHeight="1">
-      <c r="B948" s="27"/>
+      <c r="B948" s="26"/>
     </row>
     <row r="949" ht="14.25" customHeight="1">
-      <c r="B949" s="27"/>
+      <c r="B949" s="26"/>
     </row>
     <row r="950" ht="14.25" customHeight="1">
-      <c r="B950" s="27"/>
+      <c r="B950" s="26"/>
     </row>
     <row r="951" ht="14.25" customHeight="1">
-      <c r="B951" s="27"/>
+      <c r="B951" s="26"/>
     </row>
     <row r="952" ht="14.25" customHeight="1">
-      <c r="B952" s="27"/>
+      <c r="B952" s="26"/>
     </row>
     <row r="953" ht="14.25" customHeight="1">
-      <c r="B953" s="27"/>
+      <c r="B953" s="26"/>
     </row>
     <row r="954" ht="14.25" customHeight="1">
-      <c r="B954" s="27"/>
+      <c r="B954" s="26"/>
     </row>
     <row r="955" ht="14.25" customHeight="1">
-      <c r="B955" s="27"/>
+      <c r="B955" s="26"/>
     </row>
     <row r="956" ht="14.25" customHeight="1">
-      <c r="B956" s="27"/>
+      <c r="B956" s="26"/>
     </row>
     <row r="957" ht="14.25" customHeight="1">
-      <c r="B957" s="27"/>
+      <c r="B957" s="26"/>
     </row>
     <row r="958" ht="14.25" customHeight="1">
-      <c r="B958" s="27"/>
+      <c r="B958" s="26"/>
     </row>
     <row r="959" ht="14.25" customHeight="1">
-      <c r="B959" s="27"/>
+      <c r="B959" s="26"/>
     </row>
     <row r="960" ht="14.25" customHeight="1">
-      <c r="B960" s="27"/>
+      <c r="B960" s="26"/>
     </row>
     <row r="961" ht="14.25" customHeight="1">
-      <c r="B961" s="27"/>
+      <c r="B961" s="26"/>
     </row>
     <row r="962" ht="14.25" customHeight="1">
-      <c r="B962" s="27"/>
+      <c r="B962" s="26"/>
     </row>
     <row r="963" ht="14.25" customHeight="1">
-      <c r="B963" s="27"/>
+      <c r="B963" s="26"/>
     </row>
     <row r="964" ht="14.25" customHeight="1">
-      <c r="B964" s="27"/>
+      <c r="B964" s="26"/>
     </row>
     <row r="965" ht="14.25" customHeight="1">
-      <c r="B965" s="27"/>
+      <c r="B965" s="26"/>
     </row>
     <row r="966" ht="14.25" customHeight="1">
-      <c r="B966" s="27"/>
+      <c r="B966" s="26"/>
     </row>
     <row r="967" ht="14.25" customHeight="1">
-      <c r="B967" s="27"/>
+      <c r="B967" s="26"/>
     </row>
     <row r="968" ht="14.25" customHeight="1">
-      <c r="B968" s="27"/>
+      <c r="B968" s="26"/>
     </row>
     <row r="969" ht="14.25" customHeight="1">
-      <c r="B969" s="27"/>
+      <c r="B969" s="26"/>
     </row>
     <row r="970" ht="14.25" customHeight="1">
-      <c r="B970" s="27"/>
+      <c r="B970" s="26"/>
     </row>
     <row r="971" ht="14.25" customHeight="1">
-      <c r="B971" s="27"/>
+      <c r="B971" s="26"/>
     </row>
     <row r="972" ht="14.25" customHeight="1">
-      <c r="B972" s="27"/>
+      <c r="B972" s="26"/>
     </row>
     <row r="973" ht="14.25" customHeight="1">
-      <c r="B973" s="27"/>
+      <c r="B973" s="26"/>
     </row>
     <row r="974" ht="14.25" customHeight="1">
-      <c r="B974" s="27"/>
+      <c r="B974" s="26"/>
     </row>
     <row r="975" ht="14.25" customHeight="1">
-      <c r="B975" s="27"/>
+      <c r="B975" s="26"/>
     </row>
     <row r="976" ht="14.25" customHeight="1">
-      <c r="B976" s="27"/>
+      <c r="B976" s="26"/>
     </row>
     <row r="977" ht="14.25" customHeight="1">
-      <c r="B977" s="27"/>
+      <c r="B977" s="26"/>
     </row>
     <row r="978" ht="14.25" customHeight="1">
-      <c r="B978" s="27"/>
+      <c r="B978" s="26"/>
     </row>
     <row r="979" ht="14.25" customHeight="1">
-      <c r="B979" s="27"/>
+      <c r="B979" s="26"/>
     </row>
     <row r="980" ht="14.25" customHeight="1">
-      <c r="B980" s="27"/>
+      <c r="B980" s="26"/>
     </row>
     <row r="981" ht="14.25" customHeight="1">
-      <c r="B981" s="27"/>
+      <c r="B981" s="26"/>
     </row>
     <row r="982" ht="14.25" customHeight="1">
-      <c r="B982" s="27"/>
+      <c r="B982" s="26"/>
     </row>
     <row r="983" ht="14.25" customHeight="1">
-      <c r="B983" s="27"/>
+      <c r="B983" s="26"/>
     </row>
     <row r="984" ht="14.25" customHeight="1">
-      <c r="B984" s="27"/>
+      <c r="B984" s="26"/>
     </row>
     <row r="985" ht="14.25" customHeight="1">
-      <c r="B985" s="27"/>
+      <c r="B985" s="26"/>
     </row>
     <row r="986" ht="14.25" customHeight="1">
-      <c r="B986" s="27"/>
+      <c r="B986" s="26"/>
     </row>
     <row r="987" ht="14.25" customHeight="1">
-      <c r="B987" s="27"/>
+      <c r="B987" s="26"/>
     </row>
     <row r="988" ht="14.25" customHeight="1">
-      <c r="B988" s="27"/>
+      <c r="B988" s="26"/>
     </row>
     <row r="989" ht="14.25" customHeight="1">
-      <c r="B989" s="27"/>
+      <c r="B989" s="26"/>
     </row>
     <row r="990" ht="14.25" customHeight="1">
-      <c r="B990" s="27"/>
+      <c r="B990" s="26"/>
     </row>
     <row r="991" ht="14.25" customHeight="1">
-      <c r="B991" s="27"/>
+      <c r="B991" s="26"/>
     </row>
     <row r="992" ht="14.25" customHeight="1">
-      <c r="B992" s="27"/>
+      <c r="B992" s="26"/>
     </row>
     <row r="993" ht="14.25" customHeight="1">
-      <c r="B993" s="27"/>
+      <c r="B993" s="26"/>
     </row>
     <row r="994" ht="14.25" customHeight="1">
-      <c r="B994" s="27"/>
+      <c r="B994" s="26"/>
     </row>
     <row r="995" ht="14.25" customHeight="1">
-      <c r="B995" s="27"/>
+      <c r="B995" s="26"/>
     </row>
     <row r="996" ht="14.25" customHeight="1">
-      <c r="B996" s="27"/>
+      <c r="B996" s="26"/>
     </row>
     <row r="997" ht="14.25" customHeight="1">
-      <c r="B997" s="27"/>
+      <c r="B997" s="26"/>
     </row>
     <row r="998" ht="14.25" customHeight="1">
-      <c r="B998" s="27"/>
+      <c r="B998" s="26"/>
     </row>
     <row r="999" ht="14.25" customHeight="1">
-      <c r="B999" s="27"/>
+      <c r="B999" s="26"/>
     </row>
     <row r="1000" ht="14.25" customHeight="1">
-      <c r="B1000" s="27"/>
+      <c r="B1000" s="26"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B26">
@@ -25275,76 +25274,76 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27">
+      <c r="B1" s="26">
         <v>42095.0</v>
       </c>
-      <c r="C1" s="27">
+      <c r="C1" s="26">
         <v>42125.0</v>
       </c>
-      <c r="D1" s="27">
+      <c r="D1" s="26">
         <v>42156.0</v>
       </c>
-      <c r="E1" s="27">
+      <c r="E1" s="26">
         <v>42186.0</v>
       </c>
-      <c r="F1" s="27">
+      <c r="F1" s="26">
         <v>42217.0</v>
       </c>
-      <c r="G1" s="27">
+      <c r="G1" s="26">
         <v>42248.0</v>
       </c>
-      <c r="H1" s="27">
+      <c r="H1" s="26">
         <v>42278.0</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1" s="26">
         <v>42309.0</v>
       </c>
-      <c r="J1" s="27">
+      <c r="J1" s="26">
         <v>42339.0</v>
       </c>
-      <c r="K1" s="27">
+      <c r="K1" s="26">
         <v>42370.0</v>
       </c>
-      <c r="L1" s="27">
+      <c r="L1" s="26">
         <v>42401.0</v>
       </c>
-      <c r="M1" s="27">
+      <c r="M1" s="26">
         <v>42430.0</v>
       </c>
-      <c r="N1" s="27">
+      <c r="N1" s="26">
         <v>42461.0</v>
       </c>
-      <c r="O1" s="27">
+      <c r="O1" s="26">
         <v>42491.0</v>
       </c>
-      <c r="P1" s="27">
+      <c r="P1" s="26">
         <v>42522.0</v>
       </c>
-      <c r="Q1" s="27">
+      <c r="Q1" s="26">
         <v>42552.0</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="26">
         <v>42583.0</v>
       </c>
-      <c r="S1" s="27">
+      <c r="S1" s="26">
         <v>42614.0</v>
       </c>
-      <c r="T1" s="27">
+      <c r="T1" s="26">
         <v>42644.0</v>
       </c>
-      <c r="U1" s="27">
+      <c r="U1" s="26">
         <v>42675.0</v>
       </c>
-      <c r="V1" s="27">
+      <c r="V1" s="26">
         <v>42705.0</v>
       </c>
-      <c r="W1" s="27">
+      <c r="W1" s="26">
         <v>42736.0</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="26">
         <v>42767.0</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="26">
         <v>42795.0</v>
       </c>
     </row>
@@ -25352,76 +25351,76 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="B2" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="20">
         <v>-4.0</v>
       </c>
-      <c r="D2" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="D2" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="20">
         <v>-4.5</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="20">
         <v>2.0</v>
       </c>
-      <c r="G2" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="18">
+      <c r="G2" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="20">
         <v>2.0</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="20">
         <v>2.0</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="20">
         <v>2.0</v>
       </c>
-      <c r="L2" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="M2" s="18">
+      <c r="L2" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="20">
         <v>-4.0</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="20">
         <v>-8.0</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="20">
         <v>-10.0</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="20">
         <v>-10.0</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="20">
         <v>-11.5</v>
       </c>
-      <c r="R2" s="18">
+      <c r="R2" s="20">
         <v>-15.8</v>
       </c>
-      <c r="S2" s="18">
+      <c r="S2" s="20">
         <v>-17.0</v>
       </c>
-      <c r="T2" s="18">
+      <c r="T2" s="20">
         <v>-19.5</v>
       </c>
-      <c r="U2" s="18">
+      <c r="U2" s="20">
         <v>-18.0</v>
       </c>
-      <c r="V2" s="18">
+      <c r="V2" s="20">
         <v>-18.0</v>
       </c>
-      <c r="W2" s="18">
+      <c r="W2" s="20">
         <v>-18.0</v>
       </c>
-      <c r="X2" s="18">
+      <c r="X2" s="20">
         <v>-17.5</v>
       </c>
-      <c r="Y2" s="18">
+      <c r="Y2" s="20">
         <v>-17.2</v>
       </c>
     </row>
@@ -25437,7 +25436,7 @@
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="J14" s="32"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" ht="14.25" customHeight="1"/>
     <row r="16" ht="14.25" customHeight="1"/>
